--- a/Extraction/assets/real_real_urls/real_real_women_accessories_combined.xlsx
+++ b/Extraction/assets/real_real_urls/real_real_women_accessories_combined.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8266" uniqueCount="8263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7153" uniqueCount="7150">
   <si>
     <t>New column 0 Url</t>
   </si>
@@ -21472,3345 +21472,6 @@
   </si>
   <si>
     <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-cat-eye-sunglasses-fsr4q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/burberry-london-square-tinted-sunglasses-ftaen</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-cat-eye-sunglasses-ft42w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-square-tinted-sunglasses-frqx3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-aviator-gradient-sunglasses-fungx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-cat-eye-mirrored-sunglasses-fv032</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-square-mirrored-sunglasses-ftbbq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-oversize-tinted-sunglasses-frqyt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-square-mirrored-sunglasses-fq06f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-shield-gradient-sunglasses-fy6wu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-mirrored-sunglasses-fy66h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-mirrored-sunglasses-w-tags-fv9zd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fxz41</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-tinted-sunglasses-fk17c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-ftno2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-mirrored-sunglasses-fu59u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-ft2fp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-oversize-gradient-sunglasses-fu8tu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-dancer-aviator-sunglasses-fu56c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-oversize-sunglasses-fu1g0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-oversize-mirrored-sunglasses-fuesw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-aviator-gradient-sunglasses-fu5yk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/flatlist-eddie-kyu-round-sunglasses-fu9wl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/quay-x-desi-french-kiss-aviator-sunglasses-fu735</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/yohji-yamamoto-round-tinted-sunglasses-ftixf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salt-renzo-wayfarer-sunglasses-fu76g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-aviator-tinted-sunglasses-fu10j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-tinted-sunglasses-fueml</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-tinted-sunglasses-fuc2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tiffany-co-aviator-mirrored-sunglasses-fuae0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-round-gradient-sunglasses-fty8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-tinted-sunglasses-fty8p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/louis-vuitton-audrey-sunglasses-wayfarer-sunglasses-ftjmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-gradient-sunglasses-ftjlp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-tinted-sunglasses-f1qgr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-oversize-gradient-sunglasses-f0pnr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-cat-eye-gradient-sunglasses-fv25r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-square-tinted-sunglasses-fv1zy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-tinted-sunglasses-fvb78</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-round-mirrored-sunglasses-fugnv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-tinted-sunglasses-fugmb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-oversize-mirrored-sunglasses-fv13o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-tinted-sunglasses-fuhm3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/thierry-lasry-cat-eye-gradient-sunglasses-fv1fr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-fuwyh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-mirrored-sunglasses-fun6w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-mirrored-sunglasses-fuj4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-square-tinted-sunglasses-fvca6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/burberry-aviator-gradient-sunglasses-fum97</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-gradient-sunglasses-fuji1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-wayfarer-gradient-sunglasses-fugxr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-futso</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/retrosuperfuture-square-mirrored-sunglasses-fv1ej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dior-homme-aviator-mirrored-sunglasses-fv3bl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/judith-leiber-oversize-gradient-sunglasses-fuypq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-wayfarer-gradient-sunglasses-fldct</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-oversize-gradient-sunglasses-fsdk4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-cat-eye-gradient-sunglasses-frnfm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-oversize-mirrored-sunglasses-fs5z8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-oversize-tinted-sunglasses-fq1md</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/warby-parker-quimby-293-round-sunglasses-f7fj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/warby-parker-cleo-oversize-sunglasses-fse3c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-wayfarer-tinted-sunglasses-fs0wr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-oversize-tinted-sunglasses-fqmiq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-x-persol-cat-eye-gradient-sunglasses-fr7rp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-mirrored-sunglasses-fsih9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-dominique-oversize-sunglasses-fseiu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-flean</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/etudes-studio-liberte-round-sunglasses-fson4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-wayfarer-tinted-sunglasses-fsoiq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-simone-wayfarer-sunglasses-fsli8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prabal-gurung-cat-eye-tinted-sunglasses-fshx1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dita-round-gradient-sunglasses-fnzvf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-gradient-sunglasses-flulb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-tinted-sunglasses-f0l6l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oakley-cat-eye-tinted-sunglasses-ff806</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-shield-sunglasses-ft5px</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-square-sunglasses-fszn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-cat-eye-tinted-sunglasses-fstsw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-oversize-gradient-sunglasses-fsqd6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-cat-eye-gradient-sunglasses-ftaku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-tinted-sunglasses-ft301</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-tinted-sunglasses-ft097</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/n-21-cat-eye-tinted-sunglasses-ftape</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prism-wayfarer-tinted-sunglasses-fsqbh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/burberry-wayfarer-mirrored-sunglasses-fsrx9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-gradient-sunglasses-fsj7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fs23t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-fsos4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-oversize-tinted-sunglasses-ft6vk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/alexander-mcqueen-cat-eye-tinted-sunglasses-ft5qg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-cat-eye-tinted-sunglasses-fsrri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dita-aviator-tinted-sunglasses-ftd61</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorglisten3-cat-eye-sunglasses-fsruj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/kieselstein-cord-shield-gradient-sunglasses-fta20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-square-gradient-sunglasses-fsvui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-wayfarer-tinted-sunglasses-fsv9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chrome-hearts-cat-eye-gradient-sunglasses-fsow2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-tinted-sunglasses-ft544</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-ftdwe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/matthew-williamson-round-gradient-sunglasses-ft9gg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-round-tinted-sunglasses-fsvxh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marc-jacobs-wayfarer-gradient-sunglasses-ftfm0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marc-jacobs-wayfarer-gradient-sunglasses-ft9rt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-oversize-gradient-sunglasses-ft8aj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-round-gradient-sunglasses-fu0rn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-gradient-sunglasses-ftzqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-ftz8s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fte8o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/vera-wang-wayfarer-gradient-sunglasses-ftt3m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-cat-eye-tinted-sunglasses-fu7zl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-oversize-gradient-sunglasses-w-tags-ftymf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-tinted-sunglasses-ftpxw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-gradient-sunglasses-ft8lv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-cat-eye-gradient-sunglasses-ftnmy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-ftivh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-tinted-sunglasses-ftiq1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-tinted-sunglasses-ftg8k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-gradient-sunglasses-ftflm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fttjh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/burberry-oversize-tinted-sunglasses-ftpie</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fu071</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-oversize-tinted-sunglasses-fu12b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-oversize-tinted-sunglasses-ftyr6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/vera-wang-square-tinted-sunglasses-ftvxm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-square-tinted-sunglasses-ftvek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-shield-gradient-sunglasses-ftuf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-square-tinted-sunglasses-ftt1h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-round-tinted-sunglasses-fts5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/anna-karin-karlsson-oversize-gradient-sunglasses-ftrg2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-round-tinted-sunglasses-ftnr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/acne-studios-shield-tinted-sunglasses-ftlmm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-ftit2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-gradient-sunglasses-ft5ra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-wayfarer-gradient-sunglasses-fu4w8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-wayfarer-tinted-sunglasses-fu4u9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-madonna-oversize-sunglasses-ftz5y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/vera-wang-oversize-tinted-sunglasses-ftri8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-gradient-sunglasses-ftrgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-gradient-sunglasses-ftnfz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-gradient-sunglasses-fthao</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-wayfarer-gradient-sunglasses-fsw30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-cat-eye-tinted-sunglasses-fsj39</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-cat-eye-gradient-sunglasses-w-tags-fuad0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-shield-mirrored-sunglasses-fu0uo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-gradient-sunglasses-ftu74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-tinted-sunglasses-ftgwc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-square-tinted-sunglasses-ftqqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-ftha9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-round-tinted-sunglasses-ftlsl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-cat-eye-gradient-sunglasses-fsxg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/cartier-aviator-tinted-sunglasses-fu6pm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/pomellato-cat-eye-mirrored-sunglasses-fu1zo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/vera-wang-oversize-gradient-sunglasses-ftvyi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-aviator-tinted-sunglasses-ftuyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-square-gradient-sunglasses-ftrf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-ftnqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-cat-eye-gradient-sunglasses-fsx71</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-aviator-tinted-sunglasses-frqpv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-round-mirrored-sunglasses-fncrs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-cat-eye-sunglasses-fo8td</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-harlot-oversize-sunglasses-fwo2f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/anna-karin-karlsson-aviator-gradient-sunglasses-fhlth</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tory-burch-aviator-tinted-sunglasses-fre0p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jonathan-saunders-cat-eye-tinted-sunglasses-fr153</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/matsuda-square-mirrored-sunglasses-fr4k2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/moncler-wayfarer-tinted-sunglasses-w-tags-fr3hu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/valentino-round-tinted-sunglasses-foa8t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/poppy-lissiman-round-gradient-sunglasses-fs1r0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-square-gradient-sunglasses-fr7jd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-isabella-cat-eye-sunglasses-fqsy9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jonathan-adler-cat-eye-tinted-sunglasses-fs1q8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-vintage-shield-sunglasses-foza1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/judith-leiber-cat-eye-gradient-sunglasses-fr980</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/linda-farrow-oversize-tinted-sunglasses-fr8tv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-fnjaj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-wayfarer-gradient-sunglasses-ey306</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-web-accent-wayfarer-sunglasses-exw21</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marni-sunglasses-dughn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-web-accent-aviator-sunglasses-f03ql</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-gradient-sunglasses-f03od</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-round-tinted-sunglasses-f0fy3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-square-mirrored-sunglasses-ft0p5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-mirrored-sunglasses-fnadq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-square-gradient-sunglasses-frxxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-web-accent-oversize-sunglasses-frkli</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-frdh2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-horsebit-accent-oversize-sunglasses-fr7f0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-square-sunglasses-fr6jw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-square-tinted-sunglasses-fqsqe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-oversize-tinted-sunglasses-fsid2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-shield-sunglasses-fro8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fr963</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-alexandra-02-wayfarer-sunglasses-fsf9r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-aviator-mirrored-sunglasses-fsam3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-2007-cat-eye-sunglasses-frj0y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-gradient-sunglasses-fs5dm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chrome-hearts-jungle-it-up-cat-eye-sunglasses-fpyh7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/stella-mccartney-wayfarer-gradient-sunglasses-fse9a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-jeff-round-sunglasses-fsaxy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-fs0mm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-aviator-gradient-sunglasses-frf59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/off-white-c-o-virgil-abloh-2022-nassau-sunglasses-w-tags-frxe5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire1xs-square-sunglasses-frt9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-fr6bc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-gradient-sunglasses-fr1f7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-square-gradient-sunglasses-fshpu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-cat-eye-gradient-sunglasses-fs2md</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-wayfarer-mirrored-sunglasses-fr9fe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-pearl-oversize-sunglasses-fs1jq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/l-g-r-world-wayfarer-tinted-sunglasses-frf30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-web-accent-wayfarer-sunglasses-f1qco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-oversize-gradient-sunglasses-fuqlc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-square-tinted-sunglasses-fthmi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/michael-kors-cat-eye-mirrored-sunglasses-ft4tt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-square-mirrored-sunglasses-ftjam</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prive-revaux-wayfarer-gradient-sunglasses-ft1hg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-web-accent-oversize-sunglasses-fs1qa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-ft3i9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-ft15h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-aviator-mirrored-sunglasses-ftaqc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/barton-perreira-round-gradient-sunglasses-fta29</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-square-tinted-sunglasses-ftbvv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/valentino-wayfarer-gradient-sunglasses-ft4fe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-square-tinted-sunglasses-ftg37</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-square-tinted-sunglasses-ft28f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-oversize-gradient-sunglasses-fskti</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-oversize-gradient-sunglasses-ft2a8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-aviator-mirrored-sunglasses-fsupg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-mirrored-sunglasses-ftiwx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-round-tinted-sunglasses-fsrd9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-oversize-tinted-sunglasses-ft9b6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-ft0t5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-round-sunglasses-fs1q4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/moschino-cat-eye-tinted-sunglasses-ftg7j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/kieselstein-cord-oversize-gradient-sunglasses-ftaqx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/d-g-aviator-tinted-sunglasses-ft1es</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fso4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-oversize-gradient-sunglasses-ft1k8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bogner-cat-eye-tinted-sunglasses-ftrco</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-wayfarer-tinted-sunglasses-fte5k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-mirrored-sunglasses-ft536</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-round-tinted-sunglasses-fsvse</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-cat-eye-tinted-sunglasses-ftbsl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-wayfarer-gradient-sunglasses-ft6yb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-tinted-sunglasses-ft4x5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-oversize-gradient-sunglasses-ftiss</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-square-gradient-sunglasses-ft5jc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-tinted-sunglasses-ft1zq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/barton-perreira-oversize-gradient-sunglasses-ftr6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-shield-tinted-sunglasses-ftg03</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-x-scuderia-ferrari-round-mirrored-sunglasses-ftdpw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prive-revaux-round-mirrored-sunglasses-ft1eu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-round-gradient-sunglasses-f00hu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-wayfarer-tinted-sunglasses-fgnfn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-vintage-interlocking-cc-logo-sunglasses-fs10b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/velvet-canyon-square-tinted-sunglasses-w-tags-fs8ku</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-oversize-tinted-sunglasses-fq9h3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-vintage-interlocking-cc-logo-sunglasses-fq7au</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-round-tinted-sunglasses-fotvh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-betty-square-sunglasses-fqnxt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorpanther1-cat-eye-sunglasses-fqm4l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-round-tinted-sunglasses-fqgq6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-wayfarer-gradient-sunglasses-fq2p9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/stella-mccartney-round-tinted-sunglasses-fotzh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-oversize-tinted-sunglasses-fqjn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-fq3lj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-sport-aviator-mirrored-sunglasses-fpcgg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-farrell-shield-sunglasses-fmod7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-round-gradient-sunglasses-fhs4k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-shield-gradient-sunglasses-fich0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-mirrored-sunglasses-ffn3o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/cartier-vintage-1991-sunglasses-fodzd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-round-tinted-sunglasses-fk426</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-cat-eye-sunglasses-fqm5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-shield-gradient-sunglasses-fqh54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-oversize-sunglasses-fqs3e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fqnu6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-gaby-square-sunglasses-fr1yt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-gradient-sunglasses-fq339</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fqsnm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-square-tinted-sunglasses-fqpr1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-tinted-sunglasses-fr9f4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-aviator-gradient-sunglasses-fqsv1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fqmci</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fr5go</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-mirrored-sunglasses-fqjjd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/moncler-wayfarer-tinted-sunglasses-frnkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-jennifer-oversize-sunglasses-frnud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-tinted-sunglasses-frgwc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-round-gradient-sunglasses-frkr8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-round-mirrored-sunglasses-frbeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-tinted-sunglasses-fru0x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-wayfarer-tinted-sunglasses-frqze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-square-gradient-sunglasses-ep79m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-aviator-gradient-sunglasses-ep6nz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-cat-eye-tinted-sunglasses-eyz3p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorabstract-wayfarer-sunglasses-fsgf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-tinted-sunglasses-frn7g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-frk5o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-round-mirrored-sunglasses-fs7o3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-square-tinted-sunglasses-frxz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-gradient-sunglasses-frdaw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-aviator-gradient-sunglasses-frwud</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-square-tinted-sunglasses-fshrp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tod-s-wayfarer-gradient-sunglasses-fshnf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/givenchy-wayfarer-gradient-sunglasses-frxcn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/mcm-wayfarer-mirrored-sunglasses-fs4cu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-tinted-sunglasses-frx1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-wayfarer-gradient-sunglasses-frvm8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/kenzo-square-tinted-sunglasses-exl44</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-cat-eye-gradient-sunglasses-fookp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-fk1oy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fhkel</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/rag-bone-cat-eye-gradient-sunglasses-fg0yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jil-sander-oversize-mirrored-sunglasses-flv57</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-tinted-sunglasses-fsu4r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-wayfarer-gradient-sunglasses-ftc1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-wayfarer-gradient-sunglasses-fswvk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-shield-clear-sunglasses-fsrta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-wayfarer-tinted-sunglasses-fskn4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-gradient-sunglasses-fsjpi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-cat-eye-gradient-sunglasses-fs9xr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-oversize-gradient-sunglasses-ft2ag</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-oversize-gradient-sunglasses-ft43w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-round-tinted-sunglasses-fsrzb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-aviator-gradient-sunglasses-fsial</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-gradient-sunglasses-fsi1i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/velvet-canyon-square-tinted-sunglasses-w-tags-ft04h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-aviator-gradient-sunglasses-ftdbx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/boucheron-aviator-mirrored-sunglasses-w-tags-ft895</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-aviator-gradient-sunglasses-ftdmj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-aviator-mirrored-sunglasses-fsosp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-square-gradient-sunglasses-fsjkq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-fsj79</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marc-jacobs-cat-eye-gradient-sunglasses-fshta</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-wayfarer-mirrored-sunglasses-fpwfd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fpe47</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/diane-von-furstenberg-wayfarer-tinted-sunglasses-fpw5m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tod-s-cat-eye-gradient-sunglasses-fp27t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/lanvin-oversize-tinted-sunglasses-fhnv8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-round-mirrored-sunglasses-fpxfy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-mirrored-sunglasses-fpvz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/etnia-barcelona-the-einstein-round-sunglasses-fp7fx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-sid-oversize-sunglasses-fm5m2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-gradient-sunglasses-fh582</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-wayfarer-gradient-sunglasses-fp9x7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-gradient-sunglasses-fpwe3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-mirrored-sunglasses-fpw3u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-tinted-sunglasses-fpvw6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-gradient-sunglasses-fptaj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/yves-saint-laurent-round-tinted-sunglasses-fphc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-mirrored-sunglasses-fp9yq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/garrett-leight-oversize-mirrored-sunglasses-foz43</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/mcm-oversize-tinted-sunglasses-fnp0t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chrome-hearts-oralgami-round-sunglasses-fme55</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-gradient-sunglasses-ey6fg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-square-tinted-sunglasses-flbli</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/paradis-collection-cat-eye-gradient-sunglasses-feh8v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-fqla8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-round-sunglasses-fpmqy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/valentino-oversize-tinted-sunglasses-fq9mz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-round-tinted-sunglasses-fqg3g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/blumarine-oversize-gradient-sunglasses-fqgtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-fplv5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-wayfarer-tinted-sunglasses-fqbp8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-round-mirrored-sunglasses-fq6h9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-aviator-gradient-sunglasses-fqldi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gianni-versace-square-mirrored-sunglasses-fqh8e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gianni-versace-square-tinted-sunglasses-fqh36</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-round-mirrored-sunglasses-fqaz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/roberto-cavalli-aviator-tinted-sunglasses-fq1qg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-tinted-sunglasses-fs0sc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/kenzo-square-tinted-sunglasses-f168w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-cat-eye-tinted-sunglasses-fv7rw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-folding-wayfarer-wayfarer-sunglasses-fkrke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-vintage-oversize-sunglasses-fqr9w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-wayfarer-sunglasses-fqsdu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-fqna2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-oversize-gradient-sunglasses-fqrcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/karen-walker-cat-eye-tinted-sunglasses-fqr8p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-gradient-sunglasses-frclj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/moschino-cat-eye-mirrored-sunglasses-fqx8g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-square-tinted-sunglasses-fqs2g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-square-tinted-sunglasses-fqnkc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/stella-mccartney-cat-eye-gradient-sunglasses-fqych</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/valentino-aviator-tinted-sunglasses-fra99</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-cat-eye-gradient-sunglasses-fr7qy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tiffany-co-round-gradient-sunglasses-fqyh6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-wayfarer-gradient-sunglasses-frds8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-round-gradient-sunglasses-fr9jr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-cockpit-aviator-sunglasses-fr7z8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/velvet-canyon-cat-eye-gradient-sunglasses-fr10b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/coperni-shield-mirrored-sunglasses-fqwo2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fqu13</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-oversize-gradient-sunglasses-fqnu0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-interlocking-cc-logo-square-sunglasses-fv60e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-cat-eye-sunglasses-fji44</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-round-gradient-sunglasses-fm3xq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-shield-tinted-sunglasses-fboeg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-square-tinted-sunglasses-foway</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-cat-eye-gradient-sunglasses-fpkh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-cat-eye-tinted-sunglasses-fjbrk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-cat-eye-tinted-sunglasses-foi3j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-round-gradient-sunglasses-fru98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balmain-oversize-tinted-sunglasses-fri84</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/rag-bone-wayfarer-gradient-sunglasses-fruno</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-tinted-sunglasses-frtqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-tinted-sunglasses-frgtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-cat-eye-gradient-sunglasses-fsg3b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/super-by-retrosuperfuture-wayfarer-tinted-sunglasses-fsipj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/valentino-oversize-gradient-sunglasses-fsg5k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fs31v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-tinted-sunglasses-frwoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-wayfarer-tinted-sunglasses-frzi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-cat-eye-tinted-sunglasses-frx7e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-square-tinted-sunglasses-frx1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-wayfarer-tinted-sunglasses-frt57</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-round-mirrored-sunglasses-frqqn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/poppy-lissiman-cat-eye-tinted-sunglasses-focwq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-shield-gradient-sunglasses-fruf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tod-s-oversize-gradient-sunglasses-fsahj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fs0wf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-cat-eye-mirrored-sunglasses-frrkf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tiffany-co-oversize-tinted-sunglasses-frh53</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marc-jacobs-aviator-gradient-sunglasses-fslz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/alain-mikli-wayfarer-tinted-sunglasses-fs79j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-cat-eye-mirrored-sunglasses-fs2wh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-aviator-gradient-sunglasses-fs0ys</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fry2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-frty7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/barton-perreira-oversize-gradient-sunglasses-fri96</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-wayfarer-mirrored-sunglasses-frgx8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-heart-mirrored-sunglasses-fs3lp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-round-tinted-sunglasses-f5atq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/zimmermann-wayfarer-tinted-sunglasses-flvsw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-vintage-interlocking-cc-logo-sunglasses-fp11p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-round-mirrored-sunglasses-fp7nd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-tinted-sunglasses-fo3du</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-shield-tinted-sunglasses-frtnv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-aviator-gradient-sunglasses-fp0ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fpa4n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-tinted-sunglasses-fkvlc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-oversize-tinted-sunglasses-fo6bz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/ray-ban-aviator-mirrored-sunglasses-fpkdi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-gradient-sunglasses-fpb1w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gentle-monster-illusion-oversize-sunglasses-fpwyy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-mirrored-sunglasses-frri2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-cat-eye-mirrored-sunglasses-frraw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-square-mirrored-sunglasses-frr9a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-tinted-sunglasses-frr7l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-stellaire-1-square-sunglasses-fpelu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-aviator-mirrored-sunglasses-frqjb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fojai</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-2022-aviator-sunglasses-fno0q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/the-row-x-oliver-peoples-aviator-mirrored-sunglasses-exz4o</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/linda-farrow-round-gradient-sunglasses-fbp86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-wayfarer-tinted-sunglasses-w-tags-fqjuv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-round-gradient-sunglasses-fql80</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-gradient-sunglasses-frxuv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-cat-eye-tinted-sunglasses-fqf1u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-cat-eye-tinted-sunglasses-fs32s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-square-tinted-sunglasses-frurt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-jerry-cat-eye-sunglasses-fqnk7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fqf0d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-gradient-sunglasses-fqla1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-square-tinted-sunglasses-fqkzv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-gradient-sunglasses-fqkna</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-oversize-gradient-sunglasses-fqkb2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fs00u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-oversize-tinted-sunglasses-frz86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-square-tinted-sunglasses-frxc9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-oversize-gradient-sunglasses-frwnw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-gradient-sunglasses-fqlny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-fairmont-sun-wayfarer-sunglasses-fq2qa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fs0av</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-frzsd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-square-gradient-sunglasses-frzoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-cat-eye-gradient-sunglasses-fql0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-gradient-sunglasses-fs0io</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-dior-stellaire-2-oversize-sunglasses-fqkh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-wayfarer-tinted-sunglasses-fqkuy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-oversize-gradient-sunglasses-fq2lw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fs0kb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-fs0c3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-round-gradient-sunglasses-fs07g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-frzyx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-oversize-gradient-sunglasses-frzk4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bottega-veneta-aviator-tinted-sunglasses-frwuz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-dorchester-aviator-sunglasses-frtvg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-round-gradient-sunglasses-frtuw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/versace-shield-tinted-sunglasses-fqduz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oliver-peoples-aviator-tinted-sunglasses-fq5w4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-narrow-mirrored-sunglasses-f0g8u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-gradient-sunglasses-fq4xc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-fb9yk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-interlocking-g-logo-oversize-sunglasses-fr9vr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-oversize-tinted-sunglasses-fre4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-shield-tinted-sunglasses-fqude</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-wayfarer-tinted-sunglasses-fs3gx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-cat-eye-tinted-sunglasses-fs3cb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-square-tinted-sunglasses-fs36p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-shield-gradient-sunglasses-fs34u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-wayfarer-tinted-sunglasses-fsdke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-gradient-sunglasses-frk4v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-gradient-sunglasses-frkkw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/alaia-oversize-tinted-sunglasses-fse6z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/lexxola-square-tinted-sunglasses-fri2v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/thierry-lasry-round-mirrored-sunglasses-fsbtq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tiffany-co-cat-eye-gradient-sunglasses-frz6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/mcm-aviator-tinted-sunglasses-fs4b5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chloe-aviator-mirrored-sunglasses-fs04g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/bvlgari-oversize-tinted-sunglasses-fr3fz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/cartier-square-tinted-sunglasses-fr2f6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-aviator-gradient-sunglasses-fqurk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/thierry-lasry-round-mirrored-sunglasses-fsa74</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/salvatore-ferragamo-square-tinted-sunglasses-frawr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-cat-eye-gradient-sunglasses-fquze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-aviator-gradient-sunglasses-fmgj7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/miu-miu-cat-eye-gradient-sunglasses-w-tags-fukg0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/oscar-de-la-renta-round-tinted-sunglasses-fmue8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/wolford-animal-patterned-tights-ctw6z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/moose-knuckles-wool-beanie-w-tags-f7vor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/bottega-veneta-bottega-veneta-braided-keychain-f930q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/stella-mccartney-bird-iphone-case-dcihd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-marinelle-barrette-w-tags-eqgk1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-red-wool-beret-fi16u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/erdem-floral-print-bucket-hat-w-tags-ftq8l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/lelet-ny-bow-hair-clip-f8t83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/carolina-herrera-sequin-embellished-mask-ersfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/clyde-sherpa-fleece-brim-hat-fs4dz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tory-burch-cat-eye-eyeglasses-fywoa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/mcm-nylon-cosmetic-bag-fz1ka</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tom-ford-cosmetic-bag-fzdad</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/burberry-cosmetic-bag-fyu1c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-cotton-newboy-cap-fyne4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/prada-lambskin-winter-gloves-fyvl5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/dolce-gabbana-headband-fytqr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-bucket-hat-fytnb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/dior-homme-square-eyeglasses-fz2cn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tiffany-co-wayfarer-eyeglasses-fyzkc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-merino-wool-beanie-fyoz4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-cosmetic-bag-fyoex</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-cat-eye-eyeglasses-fyww6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/tiffany-co-cat-eye-eyeglasses-fyjtb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/versace-leather-lanyard-fyquy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/frame-cashmere-beanie-fyttp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/tory-burch-embellished-knit-beanie-fysl9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/mischa-lampert-pom-pom-knit-hat-fyxxz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-cat-eye-eyeglasses-fywu5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/tory-burch-knitted-mittens-w-tags-fyjd3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-tessuto-cosmetic-bag-fxj4h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-hemp-beaded-logo-hat-fy6kw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-fyc0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/guanti-giglio-fiorentino-fur-trim-leather-gloves-fytk9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/gucci-satin-gloves-w-tags-fyfcq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/walborg-woven-cosmetic-pouch-fye5b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/ugg-fur-accent-winter-earmuffs-fyjvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/yves-saint-laurent-cosmetics-bag-fyoqg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-louboutin-studded-accent-iphone-case-fymi8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/maison-michel-felt-fedora-fyba6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/hermes-vintage-leather-gloves-fyf9t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-canvas-newsboy-cap-fxfyp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/gorski-puffer-bag-charm-fykal</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-black-straw-bucket-hat-fi0ny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/fendi-eyeglasses-w-tags-d1o5g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-round-eyeglasses-g1my3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-milo-alligator-touch-grigri-rodeo-tpm-bag-charm-fxj5u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-cc-pearl-barrette-fxzke</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-1974-zucca-nano-baguette-charm-fygh9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-pouch-fz28i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-bag-fz2ed</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/ruslan-baginskiy-leather-newsboy-hat-g1mg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-woven-papier-hat-g1liq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-vela-cosmetic-pouch-fxt7s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/burberry-cashmere-ear-muffs-fy955</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-satin-headband-fysba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-zucca-ff-wool-beanie-fyts2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/gucci-headband-fyts6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/miu-miu-faux-pearl-and-crystal-embellished-headband-fy2r5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-metal-headband-w-tags-fy6mx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/saint-laurent-leather-winter-gloves-g1j91</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/michael-kors-leather-gloves-g1j8z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-fox-fur-cossak-fvf0c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-cosmetic-pouch-g1fn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/erdem-floral-embroidered-bucket-hat-w-tags-g1fh3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-canvas-bag-strap-w-tags-fwuoo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-two-toned-beaded-bag-strap-fx8xj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/marine-serre-woven-moon-patterned-hosiery-fwlkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/fendi-wool-gloves-fwav5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/burberry-mini-pouch-fvomh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/chanel-2020-iphone-x-phone-case-fuvuw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/bill-blass-woven-fur-trim-winter-gloves-fwi8a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/chanel-sport-lanyard-fqrzg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-vernis-heart-coin-purse-fvhfx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-cashmere-arm-warmers-fw24c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/burberry-square-eyeglasses-fxnhw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/prada-re-nylon-smartphone-case-ft233</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-embroidered-bag-strap-fwpdw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/chanel-interlocking-cc-logo-square-eyeglasses-fvzyd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/balenciaga-leather-bag-accessory-fwhn0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/gucci-gg-printed-ear-pod-case-fw0a1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/prada-cotton-bucket-hat-fuu2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/salvatore-ferragamo-woven-knit-winter-gloves-fwh1d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tory-burch-leather-cosmetic-bag-fx1dm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/chanel-quilted-phone-case-fvusr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/chanel-timeless-cc-o-key-holder-fvupu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/greg-lauren-woven-knit-embroidered-beanie-fwy54</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/valentino-suede-bag-strap-fx6lr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-vernis-heart-coin-purse-fvhkn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/hermes-horn-hair-pick-fwegi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/missoni-lamb-leather-winter-gloves-w-tags-fwmcm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/michael-kors-fur-pom-pom-fx0to</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-leather-cosmetic-bag-fwuqw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tumi-nylon-cosmetic-bag-fwys8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/louis-vuitton-monogram-louise-phone-holder-fti4p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-vernis-heart-coin-purse-fvhi2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/burberry-leather-ipad-sleeve-fv7mb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/hermes-epsom-malice-glove-holder-fuv7r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/hermes-horn-hair-pick-fuj0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-chapeaux-corduroy-hat-fw4m7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/balenciaga-leather-bag-charm-fwjj9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brimmed-hat-fww9c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/yves-saint-laurent-logo-mirror-keychain-fwqfu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/givenchy-givenchy-solid-metal-padlock-keychain-fwqc7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/off-white-c-o-virgil-abloh-woven-logo-hat-fwq38</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/repetto-leather-shoe-keychain-fwpqm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/tiffany-co-sterling-silver-septum-keychain-fwhr2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hermes-stirrup-scarf-ring-fw9f8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/hermes-chevre-envelope-wallet-fw277</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-milo-grigri-rodeo-pegase-bag-charm-pm-fuxor</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/hermes-horn-hair-pick-fuj1j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/machete-stromanthe-no-2-comb-e2p7v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-denim-bucket-hat-w-tags-fyc9t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/chanel-camellia-6-key-holder-ez7ar</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-logo-baseball-cap-elgxq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/gucci-monogram-key-holder-eekkc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/chanel-6-key-holder-em8bs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/chanel-vintage-timeless-sunglass-case-elc4w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/chanel-timeless-cosmetic-bag-eda7h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-monogram-cap-ou-pas-cap-etabw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-raffia-sun-hat-w-tags-fsud5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/chanel-vintage-lapin-wool-hat-haute-couture-runway-2000s-exqof</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-vivienne-flower-head-bag-charm-key-holder-esyfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/fendi-b-fur-bag-charm-w-tags-fv2vr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-mink-fur-hat-fy0r9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-soft-trunk-pouch-erfhg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-mini-folding-jewelry-case-emacu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-monogram-mirror-bag-charm-ef0ep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-illustre-vivienne-venice-bag-charm-keyholder-eecvi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-2020-game-on-heart-bag-charm-ee8id</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/lanvin-x-gallery-dept-paint-splatter-hat-w-tags-fvmh7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-charm-link-cashmere-gloves-ft9mr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-cloche-cles-key-holder-esyhy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-cloche-cles-key-holder-ef0dk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-milo-grigri-rodeo-bag-charm-tpm-fx5ko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-leopard-heart-coeur-bag-charm-eeap2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-graphite-illustre-voyage-bag-charm-em99l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-sangle-zigzag-50mm-bag-strap-fvaxs</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-puzzle-key-ring-f4pbr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-monogram-vachetta-conte-de-fees-hair-pin-ezv98</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-bandouliere-shoulder-strap-ezsxe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/louis-vuitton-monogram-vernis-conte-de-fees-butterfly-hair-pin-eukj5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-shoulder-strap-etb0h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-coated-canvas-case-etaxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-puzzle-key-charm-ef0wd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-lion-bag-charm-and-key-holder-eezlx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-damier-ebene-illustre-bag-charm-eer69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-paddock-boot-bag-charm-eejft</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-monogram-bandouliere-shoulder-strap-ctocj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bottega-veneta-leather-roller-skates-fwpiu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/katherine-baumann-crystal-embellished-cosmetic-bag-fwgnf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-mosaic-blooming-flowers-charm-ezwte</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-fleur-d-etoile-keychain-ezsgv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/hermes-carmen-uno-dos-key-ring-ewb1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-looping-bag-charm-ew7k1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-mink-fluo-bubble-bag-charm-esvk6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-fleur-d-epi-bag-charm-ema35</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-grelot-bag-charm-ema0i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-leopard-heart-coeur-bag-charm-em9xj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-grelot-bag-charm-em6w3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/brunello-cucinelli-summer-hat-g1cfr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-pastilles-key-chain-bag-charm-fqx9w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/versace-gold-hairclip-fwolf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/prada-patterned-knit-socks-w-tags-fphx8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-oblique-shoulder-bag-strap-fxnz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/tory-burch-cashmere-logo-beanie-fxdiy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-london-house-check-cotton-bucket-hat-fxgj2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/tory-burch-tory-burch-leather-trim-wool-gloves-fxk0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-vintage-gg-plus-cosmetic-toiletry-pouch-fx8rb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-cc-shearling-gloves-fwedp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/prada-wood-door-keychain-fx7br</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/fendi-vitello-soft-grace-ff-1974-iphone-11-case-fxhgc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/burberry-london-quilted-leather-headband-fxge3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/burton-leather-winter-gloves-fxfc3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/chanel-timeless-vanity-case-fwp0l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-crystal-cc-barrette-fvtqi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/dolce-gabbana-iphone-case-fxg4i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-2020-liberty-floral-bucket-hat-fwj73</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/gucci-silk-floral-headband-fx4x8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/moschino-cotton-winter-gloves-fx21v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-wool-patterned-beanie-fwv04</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-hat-fxc9i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-knit-beanie-fx7mg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-damier-azur-cosmetic-pouch-gm-fx3t1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/valentino-silk-head-wrap-fxqec</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/christian-dior-logo-shoulder-bag-strap-fxnpq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/etro-etro-leather-embroidered-gloves-fxk72</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/barbour-woven-computer-case-fx966</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-the-iconoclast-monogram-luggage-tag-fxdye</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/chanel-cashmere-knit-beanie-fwkwl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/fendi-fendi-fur-bag-charm-frdhf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/prada-nylon-bucket-hat-fwukr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wide-brimmed-hat-fxbz8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/anine-bing-wide-brimmed-hat-fxbwp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/fendi-x-skims-logo-cosmetic-bag-fxf7a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/salvatore-ferragamo-nylon-cosmetic-bag-fxa3w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tod-s-nylon-cosmetic-bag-fx9de</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-damier-graphite-iphone-3g-case-fx6yy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/faithfull-the-brand-bucket-hat-fxc68</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/faithfull-the-brand-bucket-hat-fxc40</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/anya-hindmarch-face-tassel-keychain-w-tags-fxg4u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/kokin-floral-wool-hat-fx4va</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/bao-bao-issey-miyake-woven-pattern-print-cosmetic-bag-fxabb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/lele-sadoughi-patterned-glasses-and-face-mask-chain-fxa8j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/marc-by-marc-jacobs-nylon-laptop-case-fx9ws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-multi-pochette-accessories-shoulder-strap-fwair</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/alex-mill-woven-knit-pom-pom-accent-beanie-fx3zq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/zimmermann-reversible-bucket-hat-fwyny</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/artesano-straw-wide-brimmed-hat-fxcf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/artesano-straw-fedora-fxcd7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/clyde-wool-wide-brim-hat-fxab2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/helen-kaminski-raffia-sun-hat-fx4lh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-purple-wool-newsboy-cap-fwydf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/prada-leather-butterfly-keychain-fwwtd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/prada-crystal-embellished-iphone-case-fwsy5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/balenciaga-cotton-embroidered-baseball-cap-fxbf1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-damier-ebene-4-key-ring-holder-fwqxb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/borsalino-bucket-hat-fx3kn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/mcm-patterned-ox-bag-charm-fxerf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/tiffany-co-tiffany-co-metal-compact-mirror-fxegd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/loewe-leather-elephant-keychain-fxdi3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/miu-miu-puffer-mittens-fxdaq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/tiffany-co-leather-heart-keychain-fx8pm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/lelet-ny-embellished-pony-cuff-fx22y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hermes-bolduc-scarf-ring-fwwfi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-orange-sun-hat-fwwaz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-blooming-flowers-bb-bag-charm-key-holder-fwol5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/masks/es-originals-nurse-heroes-live-mask-8oyqv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/masks/es-originals-nurse-heroes-live-mask-8oyqt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/masks/alice-olivia-floral-mask-8j3xv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-neutral-hemp-fedora-fi0ze</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/svnr-carnation-barrette-8vuz8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/moose-knuckles-knit-pom-pom-beanie-f22qz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/marni-canapa-woven-bucket-hat-fmk5k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-gg-supreme-ophidia-pouch-fvq2j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/saint-laurent-matelasse-monogram-loulou-cosmetic-case-fw6vz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/balenciaga-embroidered-baseball-cap-fx5un</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/christian-dior-solid-leather-cosmetic-bag-fxav9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/celine-leather-sunglass-neck-case-fxd6q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/louis-vuitton-monogram-passport-cover-fwrdu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/chanel-2021-lipstick-case-w-chain-fu2lg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-housecheck-bakers-cap-fxkxj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fur-mink-cap-fxbyx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-vernis-cosmetic-pouch-flfld</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/clyde-corduroy-bucket-hat-fv621</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/christian-dior-leather-cannage-pattern-iphone-case-w-chain-frovt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/celine-square-eyeglasses-fol5l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-vintage-vespa-pouch-fn18c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/burberry-london-house-check-earmuffs-fu0xp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/celine-printed-scarf-ftev3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/louis-vuitton-monogram-denim-bucket-hat-fnl6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/alexander-mcqueen-silk-skull-scarf-fu0sl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/gucci-wool-printed-scarf-w-tags-ftehf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-leather-newsboy-hat-fvbup</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/prada-cotton-bucket-hat-fuz3e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/saint-laurent-oversize-mirrored-sunglasses-fkt6x</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/tiffany-co-x-supreme-solid-utility-knife-keychain-flx6v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/chanel-silk-2016-scarf-frp51</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-chaine-d-ancre-twilly-scarf-ft41n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/emilio-pucci-printed-scarf-fsci1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/balenciaga-motocross-classic-ipad-case-fs0g1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/veronica-beard-dickey-fnb6f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hosiery/gucci-hoisery-w-tags-fs4xx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-damier-azur-pattern-coated-canvas-belt-fsnm2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-2021-monogram-toiletry-pouch-19-fs9bx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-mohair-logo-beanie-futrn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-paper-hat-fu6ui</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-polyester-hat-ftryo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/gucci-printed-scarf-fpzgz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/veronica-beard-dickey-fpbeo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/salvatore-ferragamo-skinny-suede-belt-kit-fqysk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-2022-milo-varanus-niloticus-lizard-touch-grigri-rodeo-bag-charm-tpm-fsfi4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/versace-wool-scarf-ftev5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/fendi-skinny-metal-waist-belt-ffzqp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-shine-silk-scarf-ff249</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-vintage-monogram-trousse-toiletry-19-fqrg3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-interlocking-g-logo-skinny-belt-fkcp1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/valentino-camouflage-rockstud-cosmetic-bag-fs5iw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/tory-burch-leather-wristlet-fryri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-london-lambswool-nova-check-pattern-scarf-fpqsv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/saint-laurent-wide-brim-fedora-hat-fjdne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-interlocking-g-logo-skinny-belt-kit-fqi2h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-interlocking-cc-logo-calfskin-compact-wallet-fpo14</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/burberry-multicolor-leather-keychain-fnvhm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/chanel-quilted-cosmetic-case-fjewe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/helly-hansen-knit-winter-beanie-w-tags-fnxz5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/marc-jacobs-patent-leather-pouch-fohw8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/louis-vuitton-monogram-etui-cigarette-case-fm0gp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-2004-elise-wallet-fmuc8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/lele-sadoughi-pearl-glasses-chain-fgsgf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brim-hat-flsph</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsigned-broadtail-mink-trimmed-hat-fk8lt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/celine-continental-zip-wallet-leather-continental-wallet-fij69</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/hermes-2015-silk-in-classique-wallet-fitno</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/alexander-mcqueen-silk-skull-scarf-flepa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/prada-satin-padded-headband-fj4oj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/sporty-rich-embroidered-cotton-hat-fjyst</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-skinny-leather-belt-fhz45</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/gucci-leather-printed-compact-wallet-fj8mm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-cashmere-nova-check-pattern-scarf-fl4j8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-skinny-leather-belt-fheis</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/tom-ford-satin-cosmetic-bag-ff8wm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-monogram-map-printed-scarf-feok4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/dolce-cabo-mink-scarf-fgt9y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-s-lambswool-house-check-pattern-scarf-feuri</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/alexander-mcqueen-silk-printed-scarf-fbind</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marni-aviator-tinted-sunglasses-eerqz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-double-g-logo-leather-belt-fez4y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/cartier-square-eyeglasses-ev9q9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/apparis-faux-fur-headband-w-tags-fajf9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-vintage-camellia-hair-clip-fcuhh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/emilio-pucci-printed-bandana-fbwg5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/tiffany-co-leather-luggage-tag-f84u7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-london-lambswool-plaid-print-scarf-fbc3w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/balenciaga-balenciaga-embroidered-baseball-cap-fbd1s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-knit-arm-warmers-eeb3p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-nylon-bucket-hat-w-tags-f27hr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub-1-visor-f5zs2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/chanel-oversize-tinted-sunglasses-fg8yo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-scalloped-spike-studded-bag-strap-f9fxv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/moncler-bucket-berretto-sunshield-f960p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-solid-wool-blend-hat-f9dc5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-burberry-tb-monogram-silk-baseball-cap-f6fpx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/fendi-vintage-pequin-cosmetic-bag-f6f1t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/kaminski-raffia-brimmed-hat-exfvt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-square-gradient-sunglasses-f7ao8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/gucci-nylon-toiletry-pouch-ez1dn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-shield-tinted-sunglasses-f7v83</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/burberry-london-shield-mirrored-sunglasses-f6eop</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-faux-pearls-logo-hair-clip-w-tags-fb227</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/gucci-wool-scarf-f2mns</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/eres-scarf-f2140</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-napoleon-silk-scarf-f4bnk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-bamboo-accent-patent-leather-belt-f3kej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loro-piana-cashmere-scarf-f4n9h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/pierre-cardin-wide-leather-waist-belt-f4ikr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/gucci-colorblock-pattern-scarf-f54hj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gianfranco-ferre-leather-belt-evzly</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/dolce-gabbana-jeans-skinny-belt-f5vcv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/louis-vuitton-2009-monogram-vernis-belt-f5nsn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/salvatore-ferragamo-leather-continental-wallet-f65n2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-eric-javits-straw-sun-hat-f1vj1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-les-cavaliers-d-or-silk-scarf-evbt0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/delvaux-round-patterned-keychain-f2mkh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/alexander-wang-fur-bag-chain-f306v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-straw-hat-w-tags-f2ns8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-striped-sun-hat-ewwak</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/matta-paisley-print-pareo-ey9h7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-damier-ebene-4-key-holder-f31ko</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/jacquemus-cotton-bucket-hat-f3ua3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/live-the-process-headband-f3h01</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/maison-ullens-solid-leather-travel-bag-tag-w-tags-f3qdm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/max-mara-nylon-wide-brim-bucket-hat-f15il</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsigned-mink-fur-hat-f059t</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/jimmy-choo-oversize-gradient-sunglasses-f1w8j</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-diorama-club-cat-eye-sunglasses-f14zj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/filu-hats-wide-brim-hat-f1vl7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-oversize-tinted-sunglasses-f2kc5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/prada-aviator-gradient-sunglasses-f1ox9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-oversize-gradient-sunglasses-f2pp2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/valentino-rabbit-hair-fedora-hat-f2ktd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/calvin-klein-205w39nyc-printed-scarf-w-tags-f2ltj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/draper-james-wayfarer-tinted-sunglasses-f2g6m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/anya-hindmarch-shearling-bag-strap-ekmpw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/christian-dior-square-eyeglasses-f3dbx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-square-gradient-sunglasses-f3490</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-f3l5a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/illesteva-aviator-tinted-sunglasses-f37mp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/apuntob-scarf-f18qf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-cat-eye-gradient-sunglasses-eulzz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/christian-dior-oblique-luggage-tag-ezls4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/givenchy-printed-scarf-f25sl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/sensi-studio-sensi-studio-open-weave-cordovan-hat-w-tags-w-tags-ewcon</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsinged-fur-hat-es7f8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gianni-versace-vintage-late-1980-s-early-1990-s-waist-belt-euwej</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-leather-belt-kit-ezc66</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-silk-printed-scarf-w-tags-ezbk2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/burberry-plaid-print-scarf-ezq4c</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/streets-ahead-leather-crystal-embellishments-waist-belt-ezohm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dior-homme-aviator-tinted-sunglasses-eheu4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/barbara-bui-skinny-leather-belt-em04r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/akris-nylon-belt-ege59</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/unsigned-skinny-leather-belt-en6um</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-raffia-woven-hat-egv20</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/the-row-solid-baseball-cap-ejnf7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/chapeaux-motsch-x-hermes-terrycloth-bucket-hat-ejeo4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-rabbit-felt-wide-brim-hat-ekba3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/acne-studios-logo-nylon-hat-emu4b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/angel-chen-purple-wool-fur-hat-edtin</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/hermes-reversible-38-mm-queen-belt-strap-ejkpl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/versace-leather-belt-ehn5h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/moschino-leather-belt-kit-ekl3w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/linder-skinny-leather-waist-belt-ejitl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/salvatore-ferragamo-skinny-leather-belt-ebi49</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-leather-spiked-bag-strap-ec13w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-1960s-chapeaux-w-feathers-eh7kq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/fendi-fox-fur-multicolor-pom-pom-bag-charm-eienq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/luisa-brini-wool-plaid-print-scarf-egm0l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/valentino-silk-floral-print-scarf-egyr5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/st-john-silk-animal-print-scarf-egjhl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/charlotte-simone-fur-scarf-egr8v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsigned-mink-fur-hat-efbqo</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-wool-fedora-hat-edzy4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-straw-sun-hat-edghg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/yves-saint-laurent-rive-gauche-straw-fedora-hat-ecsnh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eugenia-kim-satin-hat-efm93</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/balenciaga-leather-wallet-eadq3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-web-accent-canvas-belt-eae52</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-interlocking-g-logo-leather-belt-ea5px</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/jimmy-choo-skinny-patent-leather-belt-ed9o5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/hermes-32-mm-vintage-clou-de-selle-belt-dz0rl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-1991-lv-monogram-french-purse-eb84k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/lirika-matoshi-printed-scarf-eb41f</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/moschino-skinny-leather-belt-e9ji7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/norman-norell-ny-striped-scarf-e9hv6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-metallic-square-sunglasses-e812r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/balenciaga-ba-65-56b-cat-eye-sunglasses-e4smz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/diane-von-furstenberg-printed-scarf-e2ady</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/hermes-18-mm-vintage-meli-melo-belt-dvusr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/pared-oversize-tinted-sunglasses-e1236</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/han-feng-printed-scarf-dzrc4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-aviator-gradient-sunglasses-e1x6w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/saint-laurent-printed-scarf-e32ra</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/fendi-aviator-mirrored-sunglasses-e2g1g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/judith-leiber-leather-belt-e1sq9</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-sodior-cat-eye-sunglasses-e00pd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-vintage-skinny-belt-e1f0s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/unbranded-stole-dtl1q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-stephanie-wayfarer-sunglasses-dtr10</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-square-tinted-sunglasses-dl2xm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/christian-dior-aviator-mirrored-sunglasses-dnmfz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/andy-wolf-eyewear-square-gradient-sunglasses-dqik4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/maison-boinet-skinny-leather-belt-w-tags-dn65h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/pat-areias-skinny-calf-leather-belt-kit-do5pq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-vintage-monogram-pattern-compact-wallet-dalh8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/celine-womens-cosmetic-bag-dpj0u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-2014-timeless-continental-wallet-dndul</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/dolce-gabbana-cat-eye-gradient-sunglasses-dh7s8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/marine-serre-shield-sunglasses-dk4be</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/galanos-vintage-wide-waist-belt-dei5v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-velvet-baseball-hat-w-tags-w-tags-dei5p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/the-row-striped-shawl-dhyf0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/gucci-vintage-sylvie-web-accent-waist-belt-dj6om</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-satin-hair-clip-dfoep</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/worth-scarf-dbmzi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/valentino-wool-scarf-d6ted</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/valentino-vintage-shawl-d5ftr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/maharam-leather-pouch-d4qx3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-leather-bifold-wallet-cyh2e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/mcm-visetos-iphone-x-xs-case-d0wfw</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-london-woven-bucket-hat-d0cl8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/shamballa-shield-gradient-sunglasses-cwp4s</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/charlotte-simone-fur-colorblock-pattern-stole-w-tags-cuwxk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/gucci-gg-canvas-canvas-continental-wallet-cr9io</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-dior-2008-ruched-continental-wallet-csabd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-interlocking-cc-logo-leather-trifold-wallet-cdgn7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/chanel-mesh-gathered-headband-w-tags-cn2mj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/michael-kors-bag-strap-d5whc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-26-ckyn2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/unsigned-mink-scarf-c9p2l</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/adrienne-landau-scarf-cbrz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsigned-unsigned-mink-hat-c621v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-boy-continental-leather-continental-wallet-bnbp3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/adrienne-landau-animal-print-scarf-bxaws</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/gucci-leather-continental-wallet-bb3df</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/neiman-marcus-scarf-bbmz1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-2020-interlocking-cc-logo-card-holder-fygey</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/salvatore-ferragamo-woven-bow-accent-headband-fyj0m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/gucci-gg-supreme-compact-wallet-fzf8h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/louis-vuitton-python-bandouliere-strap-fo1a0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/salvatore-ferragamo-silk-floral-print-scarf-fx1lb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/christian-louboutin-craft-leather-continental-wallet-etql0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/burberry-leather-gloves-g1an3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-cannes-pommeaux-silk-scarf-fxecu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-grey-wool-beanie-fxiqu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-les-chevaux-qataris-silk-scarf-fx9n2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-alex-02-square-sunglasses-fx757</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/moschino-long-suede-embroidered-gloves-fmxba</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/etro-silk-paisley-print-scarf-fpusa</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/adrienne-landau-knit-pom-pom-hat-w-tags-fw377</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-new-orleans-creole-jazz-silk-scarf-fsjqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hermes-knotting-cards-ftlar</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loro-piana-printed-scarf-frrvn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/moschino-wide-suede-belt-fv15k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-squishee-sun-hat-fvf1y</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/anine-bing-cotton-embroidered-baseball-cap-fv5p8</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/chanel-silk-vintage-scarf-ft2u3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/julien-david-cashmere-printed-scarf-ftbni</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brim-hat-ft9bj</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-mesh-gg-signature-baseball-cap-fu546</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/moschino-knit-beanie-w-tags-fpe86</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/chanel-interlocking-cc-logo-leather-card-holder-frda0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/roberto-cavalli-python-crystal-embellishments-belt-ftfog</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/celine-oversize-gradient-sunglasses-fo4ga</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/clare-v-velvet-and-leather-colorblock-cosmetic-bag-fr70z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/balenciaga-wool-scarf-flpxv</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/belts/rag-bone-skinny-leather-belt-fphgh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/loro-piana-cashmere-shawl-fmh7k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/chanel-cc-agenda-cover-fjoo6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/tom-ford-cat-eye-gradient-sunglasses-fkgcl</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/mark-cross-leather-coin-pouch-fi6gd</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/emilio-pucci-printed-scarf-fhb6i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/hermes-dies-et-hore-silk-scarf-f7acr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/clare-v-ponyhair-flat-pouch-exy2z</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/chanel-chanel-vintage-cc-turn-lock-gloves-erufx</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/christian-dior-silk-paisley-print-scarf-emlt2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-wool-wide-brim-hat-e01bf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-shield-mirrored-sunglasses-d2f23</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/scarves-and-shawls/louis-vuitton-logomania-wool-scarf-ct2g7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-gg-denim-bucket-hat-fxuf6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/prada-woven-mini-cosmetic-bag-fxhb0</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/fendi-zesty-keychain-fy4e4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/valentino-rockstud-ipad-case-fxvim</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/eugenia-kim-twisted-headband-fxzas</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/gentle-monster-volta-square-eyeglasses-fxmby</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/prada-saffiano-lux-leather-continental-wallet-eze3q</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-1997-monogram-pattern-jeanne-wallet-eyjxq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-straw-sun-hat-eknu2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/sunglasses/gucci-wayfarer-mirrored-sunglasses-el5s5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/louis-vuitton-wristlet-dic30</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/wallets/prada-leather-continental-wallet-cgo1h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-straw-sun-hat-fxtkn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-cashmere-logo-beanie-fxp8w</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-fox-fur-smiley-bag-bug-charm-fxo9m</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/travel/tiffany-co-patent-leather-passport-cover-fxv0r</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-felt-wide-brim-hat-fxlvg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/upcycled-silk-scrunchie-8n4y3</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/eugenia-kim-satin-bow-headband-fuf5e</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/prada-patterned-bucket-hat-fxzig</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-nova-check-bucket-hat-fy473</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/gucci-rabbit-fur-fedora-hat-w-tags-fxv2d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-ribbed-baseball-cap-fy9x2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/mischa-lampert-wool-knit-beanie-fy0lc</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/louis-vuitton-monogram-toiletry-pouch-fxwyz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/fendi-kurioso-key-chain-fy4fy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/mischa-lampert-wool-knit-beanie-fy0ju</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/ganni-wool-beanie-fy63v</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/prada-saffiano-leather-ipad-case-fxva2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-6-key-ring-holder-fxzgy</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/burberry-canvas-cosmetic-bag-fwx78</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/saint-laurent-matelasse-monogram-loulou-cosmetic-case-fw3l6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/christian-dior-diorclub-1-visor-fwjio</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-wool-logo-beanie-fwauf</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/fendi-logo-patch-baseball-cap-fwkbg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/dsquared-cat-eye-eyeglasses-fx39u</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/tumi-bag-pouch-fwqu7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/winter-accessories/ugg-woven-fur-trim-winter-gloves-fwiqb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/anine-bing-embossed-leather-strap-keychain-fw71p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/proenza-schouler-striped-pattern-bag-strap-fx202</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/missoni-multicolored-pom-beanie-fwu92</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/cosmetic-bags/charlotte-olympia-animal-print-cosmetic-bag-fx7nh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/janessa-leone-beige-sun-visor-fwqiq</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-woven-bucket-hat-fw1x4</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/jennifer-behr-headband-ftyjb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/face-a-face-square-eyeglasses-fwdxm</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-insolence-bag-charm-funbr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/manokhi-wool-hat-fua6p</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/adam-selman-knot-accent-winter-beanie-frj7n</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/jennifer-behr-knit-beret-fbbf6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/fendi-python-bag-strap-fxhoe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bottega-veneta-leather-roller-skates-fwpnk</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/unsigned-mink-fur-hat-g0y2i</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/ugg-solid-wool-cowboy-hat-frfcz</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/alice-olivia-floral-print-bucket-hat-w-tags-fy11h</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/isabel-marant-floral-pattern-embroidered-baseball-cap-fxzp6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/mischa-lampert-wool-knit-beanie-fy0i1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/philip-treacy-woven-bucket-hat-fxka5</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/valentino-round-eyeglasses-fy6yi</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/maison-michel-cotton-bucket-hat-fxclh</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/keychains/louis-vuitton-monogram-key-holder-bag-charm-funyb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/bag-accessories/hermes-grigri-pegase-rodeo-bag-charm-pm-fulek</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/technology/gucci-canvas-gg-printed-iphone-case-g0ly1</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-logo-embroidered-baseball-cap-fxbbe</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-check-bucket-hat-fxhy7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-check-bucket-hat-fxlne</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/lele-sadoughi-x-loveshackfancy-headband-fwzjp</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/burberry-nova-check-bucket-hat-fxq1b</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-baseball-cap-fwwza</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/rag-bone-hat-fwy1a</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/loro-piana-cashmere-felt-fedora-fww0g</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/kith-logo-bucket-hat-fxj7d</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hair-accessories/prada-satin-headband-fx3m7</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/eyeglasses/bvlgari-square-eyeglasses-fxfgb</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/y-3-x-adidas-visor-fxds6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/hermes-silk-in-pilot-hat-fx5rn</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/inverni-knit-beanie-fwzz6</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/clare-v-bucket-hat-fxus2</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/tory-sport-cotton-visor-fxajg</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/eric-javits-weaved-fedora-cap-fx9nr</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/borsalino-cotton-bucket-hat-fwx9k</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/stetson-straw-cowboy-hat-fwwqu</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/helen-kaminski-formed-felt-hat-fx4pt</t>
-  </si>
-  <si>
-    <t>https://www.therealreal.com/products/women/accessories/hats/cassin-fur-hat-fx36o</t>
   </si>
 </sst>
 </file>
@@ -25149,9 +21810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2113"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
+      <selection activeCell="A1000" sqref="A1000"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -30153,5571 +26816,6 @@
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>7149</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>7151</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
-        <v>7152</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
-        <v>7153</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>7154</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>7155</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>7156</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>7157</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>7158</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
-        <v>7159</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
-        <v>7160</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
-        <v>7161</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>7162</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
-        <v>7163</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
-        <v>7164</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
-        <v>7165</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
-        <v>7166</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" t="s">
-        <v>7167</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" t="s">
-        <v>7168</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" t="s">
-        <v>7169</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" t="s">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" t="s">
-        <v>7171</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" t="s">
-        <v>7172</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" t="s">
-        <v>7173</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
-        <v>7174</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" t="s">
-        <v>7175</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
-        <v>7176</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" t="s">
-        <v>7177</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" t="s">
-        <v>7178</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
-        <v>7179</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
-        <v>7180</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" t="s">
-        <v>7181</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
-        <v>7182</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" t="s">
-        <v>7183</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" t="s">
-        <v>7184</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" t="s">
-        <v>7185</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
-        <v>7186</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" t="s">
-        <v>7187</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
-        <v>7188</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
-        <v>7189</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
-        <v>7190</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
-        <v>7191</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
-        <v>7192</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
-        <v>7193</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
-        <v>7194</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
-        <v>7195</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1047" t="s">
-        <v>7196</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
-        <v>7197</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
-        <v>7198</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
-        <v>7199</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
-        <v>7201</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
-        <v>7202</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
-        <v>7203</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
-        <v>7204</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
-        <v>7205</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>7206</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
-        <v>7207</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>7208</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>7209</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>7210</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
-        <v>7211</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>7212</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>7213</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>7214</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
-        <v>7215</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>7216</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>7217</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>7218</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
-        <v>7219</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
-        <v>7220</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
-        <v>7221</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
-        <v>7222</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
-        <v>7223</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
-        <v>7225</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
-        <v>7226</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
-        <v>7227</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
-        <v>7228</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
-        <v>7229</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" t="s">
-        <v>7230</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" t="s">
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" t="s">
-        <v>7232</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" t="s">
-        <v>7233</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" t="s">
-        <v>7234</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
-        <v>7235</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>7236</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" t="s">
-        <v>7237</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" t="s">
-        <v>7238</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" t="s">
-        <v>7239</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" t="s">
-        <v>7240</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" t="s">
-        <v>7241</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" t="s">
-        <v>7242</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
-        <v>7243</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" t="s">
-        <v>7244</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" t="s">
-        <v>7245</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" t="s">
-        <v>7246</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" t="s">
-        <v>7247</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" t="s">
-        <v>7248</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>7249</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" t="s">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" t="s">
-        <v>7251</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
-        <v>7252</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" t="s">
-        <v>7253</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" t="s">
-        <v>7254</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" t="s">
-        <v>7255</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" t="s">
-        <v>7256</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" t="s">
-        <v>7257</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" t="s">
-        <v>7258</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" t="s">
-        <v>7259</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" t="s">
-        <v>7260</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" t="s">
-        <v>7261</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
-        <v>7262</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
-        <v>7263</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" t="s">
-        <v>7264</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" t="s">
-        <v>7265</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
-        <v>7266</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" t="s">
-        <v>7267</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
-        <v>7268</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
-        <v>7269</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
-        <v>7270</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>7271</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>7272</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>7273</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
-        <v>7274</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
-        <v>7275</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" t="s">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" t="s">
-        <v>7278</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" t="s">
-        <v>7279</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" t="s">
-        <v>7280</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" t="s">
-        <v>7281</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" t="s">
-        <v>7282</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" t="s">
-        <v>7283</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" t="s">
-        <v>7284</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" t="s">
-        <v>7285</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" t="s">
-        <v>7286</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" t="s">
-        <v>7287</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" t="s">
-        <v>7288</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" t="s">
-        <v>7289</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" t="s">
-        <v>7290</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
-        <v>7291</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" t="s">
-        <v>7292</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
-        <v>7293</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" t="s">
-        <v>7294</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
-        <v>7295</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" t="s">
-        <v>7296</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1148" t="s">
-        <v>7297</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1149" t="s">
-        <v>7298</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1150" t="s">
-        <v>7299</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1151" t="s">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1152" t="s">
-        <v>7301</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1153" t="s">
-        <v>7302</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1154" t="s">
-        <v>7303</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1155" t="s">
-        <v>7304</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1156" t="s">
-        <v>7305</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1157" t="s">
-        <v>7306</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1158" t="s">
-        <v>7307</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1159" t="s">
-        <v>7308</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1160" t="s">
-        <v>7309</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1161" t="s">
-        <v>7310</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1162" t="s">
-        <v>7311</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1163" t="s">
-        <v>7312</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1164" t="s">
-        <v>7313</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1165" t="s">
-        <v>7314</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1166" t="s">
-        <v>7315</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1167" t="s">
-        <v>7316</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1168" t="s">
-        <v>7317</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1169" t="s">
-        <v>7318</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1170" t="s">
-        <v>7319</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1171" t="s">
-        <v>7320</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1172" t="s">
-        <v>7321</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1173" t="s">
-        <v>7322</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1174" t="s">
-        <v>7323</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1175" t="s">
-        <v>7324</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1176" t="s">
-        <v>7325</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1177" t="s">
-        <v>7326</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1178" t="s">
-        <v>7327</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1179" t="s">
-        <v>7328</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1180" t="s">
-        <v>7329</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1181" t="s">
-        <v>7330</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1182" t="s">
-        <v>7331</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1183" t="s">
-        <v>7332</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1184" t="s">
-        <v>7333</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1185" t="s">
-        <v>7334</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1186" t="s">
-        <v>7335</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1187" t="s">
-        <v>7336</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1188" t="s">
-        <v>7337</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1189" t="s">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1190" t="s">
-        <v>7339</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1191" t="s">
-        <v>7340</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1192" t="s">
-        <v>7341</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1193" t="s">
-        <v>7342</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1194" t="s">
-        <v>7343</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1195" t="s">
-        <v>7344</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1196" t="s">
-        <v>7345</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1197" t="s">
-        <v>7346</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1198" t="s">
-        <v>7347</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1199" t="s">
-        <v>7348</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1200" t="s">
-        <v>7349</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" t="s">
-        <v>7350</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" t="s">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" t="s">
-        <v>7352</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" t="s">
-        <v>7353</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" t="s">
-        <v>7354</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" t="s">
-        <v>7355</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" t="s">
-        <v>7356</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" t="s">
-        <v>7357</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" t="s">
-        <v>7358</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" t="s">
-        <v>7359</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" t="s">
-        <v>7360</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" t="s">
-        <v>7361</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" t="s">
-        <v>7362</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" t="s">
-        <v>7363</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" t="s">
-        <v>7364</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" t="s">
-        <v>7365</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" t="s">
-        <v>7366</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" t="s">
-        <v>7367</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" t="s">
-        <v>7368</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" t="s">
-        <v>7369</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" t="s">
-        <v>7370</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" t="s">
-        <v>7371</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" t="s">
-        <v>7372</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" t="s">
-        <v>7373</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" t="s">
-        <v>7374</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" t="s">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" t="s">
-        <v>7376</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" t="s">
-        <v>7377</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" t="s">
-        <v>7378</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" t="s">
-        <v>7379</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" t="s">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" t="s">
-        <v>7381</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" t="s">
-        <v>7382</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" t="s">
-        <v>7383</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1235" t="s">
-        <v>7384</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1236" t="s">
-        <v>7385</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1237" t="s">
-        <v>7386</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1238" t="s">
-        <v>7387</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1239" t="s">
-        <v>7388</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1240" t="s">
-        <v>7389</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1241" t="s">
-        <v>7390</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" t="s">
-        <v>7391</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" t="s">
-        <v>7392</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1244" t="s">
-        <v>7393</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1245" t="s">
-        <v>7394</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1246" t="s">
-        <v>7395</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" t="s">
-        <v>7396</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" t="s">
-        <v>7397</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1249" t="s">
-        <v>7398</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1250" t="s">
-        <v>7399</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1251" t="s">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1252" t="s">
-        <v>7401</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1253" t="s">
-        <v>7402</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1254" t="s">
-        <v>7403</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1255" t="s">
-        <v>7404</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1256" t="s">
-        <v>7405</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1257" t="s">
-        <v>7406</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1258" t="s">
-        <v>7407</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1259" t="s">
-        <v>7408</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1260" t="s">
-        <v>7409</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1261" t="s">
-        <v>7410</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1262" t="s">
-        <v>7411</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1263" t="s">
-        <v>7412</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1264" t="s">
-        <v>7413</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1265" t="s">
-        <v>7414</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1266" t="s">
-        <v>7415</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1267" t="s">
-        <v>7416</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1268" t="s">
-        <v>7417</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1269" t="s">
-        <v>7418</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1270" t="s">
-        <v>7419</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1271" t="s">
-        <v>7420</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1272" t="s">
-        <v>7421</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1273" t="s">
-        <v>7422</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1274" t="s">
-        <v>7423</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1275" t="s">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1276" t="s">
-        <v>7425</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1277" t="s">
-        <v>7426</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1278" t="s">
-        <v>7427</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1279" t="s">
-        <v>7428</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1280" t="s">
-        <v>7429</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1281" t="s">
-        <v>7430</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1282" t="s">
-        <v>7431</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1283" t="s">
-        <v>7432</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1284" t="s">
-        <v>7433</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1285" t="s">
-        <v>7434</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1286" t="s">
-        <v>7435</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1287" t="s">
-        <v>7436</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1288" t="s">
-        <v>7437</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1289" t="s">
-        <v>7438</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1290" t="s">
-        <v>7439</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1291" t="s">
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1292" t="s">
-        <v>7441</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1293" t="s">
-        <v>7442</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1294" t="s">
-        <v>7443</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1295" t="s">
-        <v>7444</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1296" t="s">
-        <v>7445</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1297" t="s">
-        <v>7446</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1298" t="s">
-        <v>7447</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1299" t="s">
-        <v>7448</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1300" t="s">
-        <v>7449</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1301" t="s">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1302" t="s">
-        <v>7451</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1303" t="s">
-        <v>7452</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1304" t="s">
-        <v>7453</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1305" t="s">
-        <v>7454</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1306" t="s">
-        <v>7455</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1307" t="s">
-        <v>7456</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1308" t="s">
-        <v>7457</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1309" t="s">
-        <v>7458</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1310" t="s">
-        <v>7459</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" t="s">
-        <v>7460</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" t="s">
-        <v>7461</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" t="s">
-        <v>7462</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1314" t="s">
-        <v>7463</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1315" t="s">
-        <v>7464</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1316" t="s">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1317" t="s">
-        <v>7466</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1318" t="s">
-        <v>7467</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1319" t="s">
-        <v>7468</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1320" t="s">
-        <v>7469</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1321" t="s">
-        <v>7470</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1322" t="s">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" t="s">
-        <v>7472</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" t="s">
-        <v>7473</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" t="s">
-        <v>7474</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1326" t="s">
-        <v>7475</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1327" t="s">
-        <v>7476</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1328" t="s">
-        <v>7477</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1329" t="s">
-        <v>7478</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1330" t="s">
-        <v>7479</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1331" t="s">
-        <v>7480</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1332" t="s">
-        <v>7481</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1333" t="s">
-        <v>7482</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1334" t="s">
-        <v>7483</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1335" t="s">
-        <v>7484</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1336" t="s">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1337" t="s">
-        <v>7486</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1338" t="s">
-        <v>7487</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1339" t="s">
-        <v>7488</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1340" t="s">
-        <v>7489</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1341" t="s">
-        <v>7490</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1342" t="s">
-        <v>7491</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1343" t="s">
-        <v>7492</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1344" t="s">
-        <v>7493</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1345" t="s">
-        <v>7494</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1346" t="s">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1347" t="s">
-        <v>7496</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1348" t="s">
-        <v>7497</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1349" t="s">
-        <v>7498</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1350" t="s">
-        <v>7499</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1351" t="s">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1352" t="s">
-        <v>7501</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1353" t="s">
-        <v>7502</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1354" t="s">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1355" t="s">
-        <v>7504</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1356" t="s">
-        <v>7505</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1357" t="s">
-        <v>7506</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1358" t="s">
-        <v>7507</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1359" t="s">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1360" t="s">
-        <v>7509</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361" t="s">
-        <v>7510</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362" t="s">
-        <v>7511</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363" t="s">
-        <v>7512</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1364" t="s">
-        <v>7513</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1365" t="s">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1366" t="s">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1367" t="s">
-        <v>7516</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1368" t="s">
-        <v>7517</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1369" t="s">
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1370" t="s">
-        <v>7519</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1371" t="s">
-        <v>7520</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1372" t="s">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" t="s">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" t="s">
-        <v>7523</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1376" t="s">
-        <v>7525</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1377" t="s">
-        <v>7526</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1378" t="s">
-        <v>7527</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1379" t="s">
-        <v>7528</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1380" t="s">
-        <v>7529</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1381" t="s">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1382" t="s">
-        <v>7531</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1383" t="s">
-        <v>7532</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1384" t="s">
-        <v>7533</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1385" t="s">
-        <v>7534</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1386" t="s">
-        <v>7535</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1387" t="s">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1388" t="s">
-        <v>7537</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1389" t="s">
-        <v>7538</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1390" t="s">
-        <v>7539</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1391" t="s">
-        <v>7540</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1392" t="s">
-        <v>7541</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1393" t="s">
-        <v>7542</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1394" t="s">
-        <v>7543</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1395" t="s">
-        <v>7544</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1396" t="s">
-        <v>7545</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1397" t="s">
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1398" t="s">
-        <v>7547</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1399" t="s">
-        <v>7548</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1400" t="s">
-        <v>7549</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1401" t="s">
-        <v>7550</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1402" t="s">
-        <v>7551</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1403" t="s">
-        <v>7552</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1404" t="s">
-        <v>7553</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1405" t="s">
-        <v>7554</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1406" t="s">
-        <v>7555</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1407" t="s">
-        <v>7556</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1408" t="s">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1409" t="s">
-        <v>7558</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1410" t="s">
-        <v>7559</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1411" t="s">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1412" t="s">
-        <v>7561</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1413" t="s">
-        <v>7562</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1414" t="s">
-        <v>7563</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1415" t="s">
-        <v>7564</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1416" t="s">
-        <v>7565</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1417" t="s">
-        <v>7566</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1418" t="s">
-        <v>7567</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1419" t="s">
-        <v>7568</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1420" t="s">
-        <v>7569</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1421" t="s">
-        <v>7570</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1422" t="s">
-        <v>7571</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1423" t="s">
-        <v>7572</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1424" t="s">
-        <v>7573</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1425" t="s">
-        <v>7574</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1426" t="s">
-        <v>7575</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427" t="s">
-        <v>7576</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428" t="s">
-        <v>7577</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429" t="s">
-        <v>7578</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1430" t="s">
-        <v>7579</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1431" t="s">
-        <v>7580</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1432" t="s">
-        <v>7581</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1433" t="s">
-        <v>7582</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1434" t="s">
-        <v>7583</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1435" t="s">
-        <v>7584</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1436" t="s">
-        <v>7585</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1437" t="s">
-        <v>7586</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1438" t="s">
-        <v>7587</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1439" t="s">
-        <v>7588</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1440" t="s">
-        <v>7589</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1441" t="s">
-        <v>7590</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1442" t="s">
-        <v>7591</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1443" t="s">
-        <v>7592</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1444" t="s">
-        <v>7593</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1445" t="s">
-        <v>7594</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1446" t="s">
-        <v>7595</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1447" t="s">
-        <v>7596</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1448" t="s">
-        <v>7597</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1449" t="s">
-        <v>7598</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1450" t="s">
-        <v>7599</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1451" t="s">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1452" t="s">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1453" t="s">
-        <v>7602</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1454" t="s">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1455" t="s">
-        <v>7604</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1456" t="s">
-        <v>7605</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1457" t="s">
-        <v>7606</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1458" t="s">
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1459" t="s">
-        <v>7608</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1460" t="s">
-        <v>7609</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1461" t="s">
-        <v>7610</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1462" t="s">
-        <v>7611</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" t="s">
-        <v>7612</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1464" t="s">
-        <v>7613</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1465" t="s">
-        <v>7614</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1466" t="s">
-        <v>7615</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1467" t="s">
-        <v>7616</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1468" t="s">
-        <v>7617</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1469" t="s">
-        <v>7618</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1470" t="s">
-        <v>7619</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1471" t="s">
-        <v>7620</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1472" t="s">
-        <v>7621</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1473" t="s">
-        <v>7622</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1474" t="s">
-        <v>7623</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1475" t="s">
-        <v>7624</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" t="s">
-        <v>7625</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477" t="s">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" t="s">
-        <v>7627</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" t="s">
-        <v>7628</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1480" t="s">
-        <v>7629</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1481" t="s">
-        <v>7630</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1482" t="s">
-        <v>7631</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1483" t="s">
-        <v>7632</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1484" t="s">
-        <v>7633</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1485" t="s">
-        <v>7634</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1486" t="s">
-        <v>7635</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1487" t="s">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1488" t="s">
-        <v>7637</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1489" t="s">
-        <v>7638</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1490" t="s">
-        <v>7639</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1491" t="s">
-        <v>7640</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1492" t="s">
-        <v>7641</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1493" t="s">
-        <v>7642</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1494" t="s">
-        <v>7643</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1495" t="s">
-        <v>7644</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1496" t="s">
-        <v>7645</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1497" t="s">
-        <v>7646</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1498" t="s">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1499" t="s">
-        <v>7648</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1500" t="s">
-        <v>7649</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1501" t="s">
-        <v>7650</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1502" t="s">
-        <v>7651</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1503" t="s">
-        <v>7652</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1504" t="s">
-        <v>7653</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1505" t="s">
-        <v>7654</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1506" t="s">
-        <v>7655</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1507" t="s">
-        <v>7656</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1508" t="s">
-        <v>7657</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1509" t="s">
-        <v>7658</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1510" t="s">
-        <v>7659</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1511" t="s">
-        <v>7660</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1512" t="s">
-        <v>7661</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1513" t="s">
-        <v>7662</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1514" t="s">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1515" t="s">
-        <v>7664</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1516" t="s">
-        <v>7665</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1517" t="s">
-        <v>7666</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1518" t="s">
-        <v>7667</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1519" t="s">
-        <v>7668</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1520" t="s">
-        <v>7669</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1521" t="s">
-        <v>7670</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1522" t="s">
-        <v>7671</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1523" t="s">
-        <v>7672</v>
-      </c>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1524" t="s">
-        <v>7673</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1525" t="s">
-        <v>7674</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1526" t="s">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1527" t="s">
-        <v>7676</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1528" t="s">
-        <v>7677</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1529" t="s">
-        <v>7678</v>
-      </c>
-    </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1530" t="s">
-        <v>7679</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1531" t="s">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1532" t="s">
-        <v>7681</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1533" t="s">
-        <v>7682</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1534" t="s">
-        <v>7683</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1535" t="s">
-        <v>7684</v>
-      </c>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1536" t="s">
-        <v>7685</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1537" t="s">
-        <v>7686</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1538" t="s">
-        <v>7687</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1539" t="s">
-        <v>7688</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1540" t="s">
-        <v>7689</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>7690</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1542" t="s">
-        <v>7691</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1543" t="s">
-        <v>7692</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1544" t="s">
-        <v>7693</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1545" t="s">
-        <v>7694</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1546" t="s">
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1547" t="s">
-        <v>7696</v>
-      </c>
-    </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1548" t="s">
-        <v>7697</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1549" t="s">
-        <v>7698</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1550" t="s">
-        <v>7699</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1551" t="s">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1552" t="s">
-        <v>7701</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1553" t="s">
-        <v>7702</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1554" t="s">
-        <v>7703</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1555" t="s">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1556" t="s">
-        <v>7705</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1557" t="s">
-        <v>7706</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1558" t="s">
-        <v>7707</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1559" t="s">
-        <v>7708</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1560" t="s">
-        <v>7709</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1561" t="s">
-        <v>7710</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1562" t="s">
-        <v>7711</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1563" t="s">
-        <v>7712</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1564" t="s">
-        <v>7713</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1565" t="s">
-        <v>7714</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1566" t="s">
-        <v>7715</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1567" t="s">
-        <v>7716</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1568" t="s">
-        <v>7717</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1569" t="s">
-        <v>7718</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1570" t="s">
-        <v>7719</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1571" t="s">
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1572" t="s">
-        <v>7721</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1573" t="s">
-        <v>7722</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1574" t="s">
-        <v>7723</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1575" t="s">
-        <v>7724</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1576" t="s">
-        <v>7725</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1577" t="s">
-        <v>7726</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1578" t="s">
-        <v>7727</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1579" t="s">
-        <v>7728</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1580" t="s">
-        <v>7729</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1581" t="s">
-        <v>7730</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1582" t="s">
-        <v>7731</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1583" t="s">
-        <v>7732</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1584" t="s">
-        <v>7733</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1585" t="s">
-        <v>7734</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1586" t="s">
-        <v>7735</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1587" t="s">
-        <v>7736</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1588" t="s">
-        <v>7737</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1589" t="s">
-        <v>7738</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1590" t="s">
-        <v>7739</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1591" t="s">
-        <v>7740</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1592" t="s">
-        <v>7741</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1593" t="s">
-        <v>7742</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1594" t="s">
-        <v>7743</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1595" t="s">
-        <v>7744</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1596" t="s">
-        <v>7745</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1597" t="s">
-        <v>7746</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1598" t="s">
-        <v>7747</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1599" t="s">
-        <v>7748</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1600" t="s">
-        <v>7749</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1601" t="s">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1602" t="s">
-        <v>7751</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1603" t="s">
-        <v>7752</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1604" t="s">
-        <v>7753</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1605" t="s">
-        <v>7754</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1606" t="s">
-        <v>7755</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1607" t="s">
-        <v>7756</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1608" t="s">
-        <v>7757</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1609" t="s">
-        <v>7758</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1610" t="s">
-        <v>7759</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1611" t="s">
-        <v>7760</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1612" t="s">
-        <v>7761</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1613" t="s">
-        <v>7762</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1614" t="s">
-        <v>7763</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1615" t="s">
-        <v>7764</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1616" t="s">
-        <v>7765</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1617" t="s">
-        <v>7766</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1618" t="s">
-        <v>7767</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1619" t="s">
-        <v>7768</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1620" t="s">
-        <v>7769</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1621" t="s">
-        <v>7770</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1622" t="s">
-        <v>7771</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1623" t="s">
-        <v>7772</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1624" t="s">
-        <v>7773</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1625" t="s">
-        <v>7774</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1626" t="s">
-        <v>7775</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1627" t="s">
-        <v>7776</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1628" t="s">
-        <v>7777</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1629" t="s">
-        <v>7778</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1630" t="s">
-        <v>7779</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1631" t="s">
-        <v>7780</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1632" t="s">
-        <v>7781</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1633" t="s">
-        <v>7782</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1634" t="s">
-        <v>7783</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1635" t="s">
-        <v>7784</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1636" t="s">
-        <v>7785</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1637" t="s">
-        <v>7786</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1638" t="s">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1639" t="s">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1640" t="s">
-        <v>7789</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1641" t="s">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1642" t="s">
-        <v>7791</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1643" t="s">
-        <v>7792</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1644" t="s">
-        <v>7793</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1645" t="s">
-        <v>7794</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1646" t="s">
-        <v>7795</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1647" t="s">
-        <v>7796</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1648" t="s">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1649" t="s">
-        <v>7798</v>
-      </c>
-    </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1650" t="s">
-        <v>7799</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1651" t="s">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1652" t="s">
-        <v>7801</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1653" t="s">
-        <v>7802</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1654" t="s">
-        <v>7803</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1655" t="s">
-        <v>7804</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1656" t="s">
-        <v>7805</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1657" t="s">
-        <v>7806</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1658" t="s">
-        <v>7807</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1659" t="s">
-        <v>7808</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1660" t="s">
-        <v>7809</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1661" t="s">
-        <v>7810</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1662" t="s">
-        <v>7811</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1663" t="s">
-        <v>7812</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1664" t="s">
-        <v>7813</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1665" t="s">
-        <v>7814</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1666" t="s">
-        <v>7815</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1667" t="s">
-        <v>7816</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1668" t="s">
-        <v>7817</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1669" t="s">
-        <v>7818</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1670" t="s">
-        <v>7819</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1671" t="s">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1672" t="s">
-        <v>7821</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1673" t="s">
-        <v>7822</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1674" t="s">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1675" t="s">
-        <v>7824</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1676" t="s">
-        <v>7825</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1677" t="s">
-        <v>7826</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1678" t="s">
-        <v>7827</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1679" t="s">
-        <v>7828</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1680" t="s">
-        <v>7829</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1681" t="s">
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1682" t="s">
-        <v>7831</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1683" t="s">
-        <v>7832</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1684" t="s">
-        <v>7833</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1685" t="s">
-        <v>7834</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1686" t="s">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1687" t="s">
-        <v>7836</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1688" t="s">
-        <v>7837</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1689" t="s">
-        <v>7838</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1690" t="s">
-        <v>7839</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1691" t="s">
-        <v>7840</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1692" t="s">
-        <v>7841</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1693" t="s">
-        <v>7842</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1694" t="s">
-        <v>7843</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1695" t="s">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1696" t="s">
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1697" t="s">
-        <v>7846</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1698" t="s">
-        <v>7847</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1699" t="s">
-        <v>7848</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1700" t="s">
-        <v>7849</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1701" t="s">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1702" t="s">
-        <v>7851</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1703" t="s">
-        <v>7852</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1704" t="s">
-        <v>7853</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1705" t="s">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1706" t="s">
-        <v>7855</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1707" t="s">
-        <v>7856</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1708" t="s">
-        <v>7857</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1709" t="s">
-        <v>7858</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1710" t="s">
-        <v>7859</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1711" t="s">
-        <v>7860</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1712" t="s">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1713" t="s">
-        <v>7862</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1714" t="s">
-        <v>7863</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1715" t="s">
-        <v>7864</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1716" t="s">
-        <v>7865</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1717" t="s">
-        <v>7866</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1718" t="s">
-        <v>7867</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1719" t="s">
-        <v>7868</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1720" t="s">
-        <v>7869</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1721" t="s">
-        <v>7870</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1722" t="s">
-        <v>7871</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1723" t="s">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1724" t="s">
-        <v>7873</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1725" t="s">
-        <v>7874</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1726" t="s">
-        <v>7875</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1727" t="s">
-        <v>7876</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1728" t="s">
-        <v>7877</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1729" t="s">
-        <v>7878</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1730" t="s">
-        <v>7879</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1731" t="s">
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1732" t="s">
-        <v>7881</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1733" t="s">
-        <v>7882</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1734" t="s">
-        <v>7883</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1735" t="s">
-        <v>7884</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1736" t="s">
-        <v>7885</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1737" t="s">
-        <v>7886</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1738" t="s">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1739" t="s">
-        <v>7888</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1740" t="s">
-        <v>7889</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1741" t="s">
-        <v>7890</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1742" t="s">
-        <v>7891</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1743" t="s">
-        <v>7892</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1744" t="s">
-        <v>7893</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1745" t="s">
-        <v>7894</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1746" t="s">
-        <v>7895</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1747" t="s">
-        <v>7896</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1748" t="s">
-        <v>7897</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1749" t="s">
-        <v>7898</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1750" t="s">
-        <v>7899</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1751" t="s">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1752" t="s">
-        <v>7901</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1753" t="s">
-        <v>7902</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1754" t="s">
-        <v>7903</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1755" t="s">
-        <v>7904</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1756" t="s">
-        <v>7905</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1757" t="s">
-        <v>7906</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1758" t="s">
-        <v>7907</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1759" t="s">
-        <v>7908</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1760" t="s">
-        <v>7909</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1761" t="s">
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1762" t="s">
-        <v>7911</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1763" t="s">
-        <v>7912</v>
-      </c>
-    </row>
-    <row r="1764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1764" t="s">
-        <v>7913</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1765" t="s">
-        <v>7914</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1766" t="s">
-        <v>7915</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1767" t="s">
-        <v>7916</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1768" t="s">
-        <v>7917</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1769" t="s">
-        <v>7918</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1770" t="s">
-        <v>7919</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1771" t="s">
-        <v>7920</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1772" t="s">
-        <v>7921</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1773" t="s">
-        <v>7922</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1774" t="s">
-        <v>7923</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1775" t="s">
-        <v>7924</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1776" t="s">
-        <v>7925</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1777" t="s">
-        <v>7926</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1778" t="s">
-        <v>7927</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1779" t="s">
-        <v>7928</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1780" t="s">
-        <v>7929</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1781" t="s">
-        <v>7930</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1782" t="s">
-        <v>7931</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1783" t="s">
-        <v>7932</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1784" t="s">
-        <v>7933</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1785" t="s">
-        <v>7934</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1786" t="s">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1787" t="s">
-        <v>7936</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1788" t="s">
-        <v>7937</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1789" t="s">
-        <v>7938</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1790" t="s">
-        <v>7939</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1791" t="s">
-        <v>7940</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1792" t="s">
-        <v>7941</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1793" t="s">
-        <v>7942</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1794" t="s">
-        <v>7943</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1795" t="s">
-        <v>7944</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1796" t="s">
-        <v>7945</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1797" t="s">
-        <v>7946</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1798" t="s">
-        <v>7947</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1799" t="s">
-        <v>7948</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1800" t="s">
-        <v>7949</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1801" t="s">
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1802" t="s">
-        <v>7951</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1803" t="s">
-        <v>7952</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1804" t="s">
-        <v>7953</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1805" t="s">
-        <v>7954</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1806" t="s">
-        <v>7955</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1807" t="s">
-        <v>7956</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1808" t="s">
-        <v>7957</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1809" t="s">
-        <v>7958</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1810" t="s">
-        <v>7959</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1811" t="s">
-        <v>7960</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1812" t="s">
-        <v>7961</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1813" t="s">
-        <v>7962</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1814" t="s">
-        <v>7963</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1815" t="s">
-        <v>7964</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1816" t="s">
-        <v>7965</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1817" t="s">
-        <v>7966</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1818" t="s">
-        <v>7967</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1819" t="s">
-        <v>7968</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1820" t="s">
-        <v>7969</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1821" t="s">
-        <v>7970</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1822" t="s">
-        <v>7971</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1823" t="s">
-        <v>7972</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1824" t="s">
-        <v>7973</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1825" t="s">
-        <v>7974</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1826" t="s">
-        <v>7975</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1827" t="s">
-        <v>7976</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1828" t="s">
-        <v>7977</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1829" t="s">
-        <v>7978</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1830" t="s">
-        <v>7979</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1831" t="s">
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1832" t="s">
-        <v>7981</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1833" t="s">
-        <v>7982</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1834" t="s">
-        <v>7983</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1835" t="s">
-        <v>7984</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1836" t="s">
-        <v>7985</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1837" t="s">
-        <v>7986</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1838" t="s">
-        <v>7987</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1839" t="s">
-        <v>7988</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1840" t="s">
-        <v>7989</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1841" t="s">
-        <v>7990</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1842" t="s">
-        <v>7991</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1843" t="s">
-        <v>7992</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1844" t="s">
-        <v>7993</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1845" t="s">
-        <v>7994</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1846" t="s">
-        <v>7995</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1847" t="s">
-        <v>7996</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1848" t="s">
-        <v>7997</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1849" t="s">
-        <v>7998</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1850" t="s">
-        <v>7999</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1851" t="s">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1852" t="s">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1853" t="s">
-        <v>8002</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1854" t="s">
-        <v>8003</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1855" t="s">
-        <v>8004</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1856" t="s">
-        <v>8005</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1857" t="s">
-        <v>8006</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1858" t="s">
-        <v>8007</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1859" t="s">
-        <v>8008</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1860" t="s">
-        <v>8009</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1861" t="s">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1862" t="s">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1863" t="s">
-        <v>8012</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1864" t="s">
-        <v>8013</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1865" t="s">
-        <v>8014</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1866" t="s">
-        <v>8015</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1867" t="s">
-        <v>8016</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1868" t="s">
-        <v>8017</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1869" t="s">
-        <v>8018</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1870" t="s">
-        <v>8019</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1871" t="s">
-        <v>8020</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1872" t="s">
-        <v>8021</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1873" t="s">
-        <v>8022</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1874" t="s">
-        <v>8023</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1875" t="s">
-        <v>8024</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1876" t="s">
-        <v>8025</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1877" t="s">
-        <v>8026</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1878" t="s">
-        <v>8027</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1879" t="s">
-        <v>8028</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1880" t="s">
-        <v>8029</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1881" t="s">
-        <v>8030</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1882" t="s">
-        <v>8031</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1883" t="s">
-        <v>8032</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1884" t="s">
-        <v>8033</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1885" t="s">
-        <v>8034</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1886" t="s">
-        <v>8035</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1887" t="s">
-        <v>8036</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1888" t="s">
-        <v>8037</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1889" t="s">
-        <v>8038</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1890" t="s">
-        <v>8039</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1891" t="s">
-        <v>8040</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1892" t="s">
-        <v>8041</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1893" t="s">
-        <v>8042</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1894" t="s">
-        <v>8043</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1895" t="s">
-        <v>8044</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1896" t="s">
-        <v>8045</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1897" t="s">
-        <v>8046</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1898" t="s">
-        <v>8047</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1899" t="s">
-        <v>8048</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1900" t="s">
-        <v>8049</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1901" t="s">
-        <v>8050</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1902" t="s">
-        <v>8051</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1903" t="s">
-        <v>8052</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1904" t="s">
-        <v>8053</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1905" t="s">
-        <v>8054</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1906" t="s">
-        <v>8055</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1907" t="s">
-        <v>8056</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1908" t="s">
-        <v>8057</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1909" t="s">
-        <v>8058</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1910" t="s">
-        <v>8059</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1911" t="s">
-        <v>8060</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1912" t="s">
-        <v>8061</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1913" t="s">
-        <v>8062</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1914" t="s">
-        <v>8063</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1915" t="s">
-        <v>8064</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1916" t="s">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1917" t="s">
-        <v>8066</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1918" t="s">
-        <v>8067</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1919" t="s">
-        <v>8068</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1920" t="s">
-        <v>8069</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1921" t="s">
-        <v>8070</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1922" t="s">
-        <v>8071</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1923" t="s">
-        <v>8072</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1924" t="s">
-        <v>8073</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1925" t="s">
-        <v>8074</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1926" t="s">
-        <v>8075</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1927" t="s">
-        <v>8076</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1928" t="s">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1929" t="s">
-        <v>8078</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1930" t="s">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1931" t="s">
-        <v>8080</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1932" t="s">
-        <v>8081</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1933" t="s">
-        <v>8082</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1934" t="s">
-        <v>8083</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1935" t="s">
-        <v>8084</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1936" t="s">
-        <v>8085</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1937" t="s">
-        <v>8086</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1938" t="s">
-        <v>8087</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1939" t="s">
-        <v>8088</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1940" t="s">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1941" t="s">
-        <v>8090</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1942" t="s">
-        <v>8091</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1943" t="s">
-        <v>8092</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1944" t="s">
-        <v>8093</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1945" t="s">
-        <v>8094</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1946" t="s">
-        <v>8095</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1947" t="s">
-        <v>8096</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1948" t="s">
-        <v>8097</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1949" t="s">
-        <v>8098</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1950" t="s">
-        <v>8099</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1951" t="s">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1952" t="s">
-        <v>8101</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1953" t="s">
-        <v>8102</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1954" t="s">
-        <v>8103</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1955" t="s">
-        <v>8104</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1956" t="s">
-        <v>8105</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1957" t="s">
-        <v>8106</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1958" t="s">
-        <v>8107</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1959" t="s">
-        <v>8108</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1960" t="s">
-        <v>8109</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1961" t="s">
-        <v>8110</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1962" t="s">
-        <v>8111</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1963" t="s">
-        <v>8112</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1964" t="s">
-        <v>8113</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1965" t="s">
-        <v>8114</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1966" t="s">
-        <v>8115</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1967" t="s">
-        <v>8116</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1968" t="s">
-        <v>8117</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1969" t="s">
-        <v>8118</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1970" t="s">
-        <v>8119</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1971" t="s">
-        <v>8120</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1972" t="s">
-        <v>8121</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1973" t="s">
-        <v>8122</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1974" t="s">
-        <v>8123</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1975" t="s">
-        <v>8124</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1976" t="s">
-        <v>8125</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1977" t="s">
-        <v>8126</v>
-      </c>
-    </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1978" t="s">
-        <v>8127</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1979" t="s">
-        <v>8128</v>
-      </c>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1980" t="s">
-        <v>8129</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1981" t="s">
-        <v>8130</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1982" t="s">
-        <v>8131</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1983" t="s">
-        <v>8132</v>
-      </c>
-    </row>
-    <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1984" t="s">
-        <v>8133</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1985" t="s">
-        <v>8134</v>
-      </c>
-    </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1986" t="s">
-        <v>8135</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1987" t="s">
-        <v>8136</v>
-      </c>
-    </row>
-    <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1988" t="s">
-        <v>8137</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1989" t="s">
-        <v>8138</v>
-      </c>
-    </row>
-    <row r="1990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1990" t="s">
-        <v>8139</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1991" t="s">
-        <v>8140</v>
-      </c>
-    </row>
-    <row r="1992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1992" t="s">
-        <v>8141</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1993" t="s">
-        <v>8142</v>
-      </c>
-    </row>
-    <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1994" t="s">
-        <v>8143</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1995" t="s">
-        <v>8144</v>
-      </c>
-    </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1996" t="s">
-        <v>8145</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1997" t="s">
-        <v>8146</v>
-      </c>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1998" t="s">
-        <v>8147</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1999" t="s">
-        <v>8148</v>
-      </c>
-    </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2000" t="s">
-        <v>8149</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2001" t="s">
-        <v>8150</v>
-      </c>
-    </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2002" t="s">
-        <v>8151</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2003" t="s">
-        <v>8152</v>
-      </c>
-    </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2004" t="s">
-        <v>8153</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2005" t="s">
-        <v>8154</v>
-      </c>
-    </row>
-    <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2006" t="s">
-        <v>8155</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2007" t="s">
-        <v>8156</v>
-      </c>
-    </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2008" t="s">
-        <v>8157</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2009" t="s">
-        <v>8158</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2010" t="s">
-        <v>8159</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2011" t="s">
-        <v>8160</v>
-      </c>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2012" t="s">
-        <v>8161</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2013" t="s">
-        <v>8162</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2014" t="s">
-        <v>8163</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2015" t="s">
-        <v>8164</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2016" t="s">
-        <v>8165</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2017" t="s">
-        <v>8166</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2018" t="s">
-        <v>8167</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2019" t="s">
-        <v>8168</v>
-      </c>
-    </row>
-    <row r="2020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2020" t="s">
-        <v>8169</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2021" t="s">
-        <v>8170</v>
-      </c>
-    </row>
-    <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2022" t="s">
-        <v>8171</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2023" t="s">
-        <v>8172</v>
-      </c>
-    </row>
-    <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2024" t="s">
-        <v>8173</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2025" t="s">
-        <v>8174</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2026" t="s">
-        <v>8175</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2027" t="s">
-        <v>8176</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2028" t="s">
-        <v>8177</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2029" t="s">
-        <v>8178</v>
-      </c>
-    </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2030" t="s">
-        <v>8179</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2031" t="s">
-        <v>8180</v>
-      </c>
-    </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2032" t="s">
-        <v>8181</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2033" t="s">
-        <v>8182</v>
-      </c>
-    </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2034" t="s">
-        <v>8183</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2035" t="s">
-        <v>8184</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2036" t="s">
-        <v>8185</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2037" t="s">
-        <v>8186</v>
-      </c>
-    </row>
-    <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2038" t="s">
-        <v>8187</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2039" t="s">
-        <v>8188</v>
-      </c>
-    </row>
-    <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2040" t="s">
-        <v>8189</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2041" t="s">
-        <v>8190</v>
-      </c>
-    </row>
-    <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2042" t="s">
-        <v>8191</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2043" t="s">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2044" t="s">
-        <v>8193</v>
-      </c>
-    </row>
-    <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2045" t="s">
-        <v>8194</v>
-      </c>
-    </row>
-    <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2046" t="s">
-        <v>8195</v>
-      </c>
-    </row>
-    <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2047" t="s">
-        <v>8196</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2048" t="s">
-        <v>8197</v>
-      </c>
-    </row>
-    <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2049" t="s">
-        <v>8198</v>
-      </c>
-    </row>
-    <row r="2050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2050" t="s">
-        <v>8199</v>
-      </c>
-    </row>
-    <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2051" t="s">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2052" t="s">
-        <v>8201</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2053" t="s">
-        <v>8202</v>
-      </c>
-    </row>
-    <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2054" t="s">
-        <v>8203</v>
-      </c>
-    </row>
-    <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2055" t="s">
-        <v>8204</v>
-      </c>
-    </row>
-    <row r="2056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2056" t="s">
-        <v>8205</v>
-      </c>
-    </row>
-    <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2057" t="s">
-        <v>8206</v>
-      </c>
-    </row>
-    <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2058" t="s">
-        <v>8207</v>
-      </c>
-    </row>
-    <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2059" t="s">
-        <v>8208</v>
-      </c>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2060" t="s">
-        <v>8209</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2061" t="s">
-        <v>8210</v>
-      </c>
-    </row>
-    <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2062" t="s">
-        <v>8211</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2063" t="s">
-        <v>8212</v>
-      </c>
-    </row>
-    <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2064" t="s">
-        <v>8213</v>
-      </c>
-    </row>
-    <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2065" t="s">
-        <v>8214</v>
-      </c>
-    </row>
-    <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2066" t="s">
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2067" t="s">
-        <v>8216</v>
-      </c>
-    </row>
-    <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2068" t="s">
-        <v>8217</v>
-      </c>
-    </row>
-    <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2069" t="s">
-        <v>8218</v>
-      </c>
-    </row>
-    <row r="2070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2070" t="s">
-        <v>8219</v>
-      </c>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2071" t="s">
-        <v>8220</v>
-      </c>
-    </row>
-    <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2072" t="s">
-        <v>8221</v>
-      </c>
-    </row>
-    <row r="2073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2073" t="s">
-        <v>8222</v>
-      </c>
-    </row>
-    <row r="2074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2074" t="s">
-        <v>8223</v>
-      </c>
-    </row>
-    <row r="2075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2075" t="s">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="2076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2076" t="s">
-        <v>8225</v>
-      </c>
-    </row>
-    <row r="2077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2077" t="s">
-        <v>8226</v>
-      </c>
-    </row>
-    <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2078" t="s">
-        <v>8227</v>
-      </c>
-    </row>
-    <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2079" t="s">
-        <v>8228</v>
-      </c>
-    </row>
-    <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2080" t="s">
-        <v>8229</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2081" t="s">
-        <v>8230</v>
-      </c>
-    </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2082" t="s">
-        <v>8231</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2083" t="s">
-        <v>8232</v>
-      </c>
-    </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2084" t="s">
-        <v>8233</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2085" t="s">
-        <v>8234</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2086" t="s">
-        <v>8235</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2087" t="s">
-        <v>8236</v>
-      </c>
-    </row>
-    <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2088" t="s">
-        <v>8237</v>
-      </c>
-    </row>
-    <row r="2089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2089" t="s">
-        <v>8238</v>
-      </c>
-    </row>
-    <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2090" t="s">
-        <v>8239</v>
-      </c>
-    </row>
-    <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2091" t="s">
-        <v>8240</v>
-      </c>
-    </row>
-    <row r="2092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2092" t="s">
-        <v>8241</v>
-      </c>
-    </row>
-    <row r="2093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2093" t="s">
-        <v>8242</v>
-      </c>
-    </row>
-    <row r="2094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2094" t="s">
-        <v>8243</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2095" t="s">
-        <v>8244</v>
-      </c>
-    </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2096" t="s">
-        <v>8245</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2097" t="s">
-        <v>8246</v>
-      </c>
-    </row>
-    <row r="2098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2098" t="s">
-        <v>8247</v>
-      </c>
-    </row>
-    <row r="2099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2099" t="s">
-        <v>8248</v>
-      </c>
-    </row>
-    <row r="2100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2100" t="s">
-        <v>8249</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2101" t="s">
-        <v>8250</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2102" t="s">
-        <v>8251</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2103" t="s">
-        <v>8252</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2104" t="s">
-        <v>8253</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2105" t="s">
-        <v>8254</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2106" t="s">
-        <v>8255</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2107" t="s">
-        <v>8256</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2108" t="s">
-        <v>8257</v>
-      </c>
-    </row>
-    <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2109" t="s">
-        <v>8258</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2110" t="s">
-        <v>8259</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2111" t="s">
-        <v>8260</v>
-      </c>
-    </row>
-    <row r="2112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2112" t="s">
-        <v>8261</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2113" t="s">
-        <v>8262</v>
       </c>
     </row>
   </sheetData>
